--- a/julia_msp/assets_data_03.24.xlsx
+++ b/julia_msp/assets_data_03.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\julia_msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB8A644F-9BB0-4C27-86F6-4D397C5FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C2964F65-AC82-4FBA-B9A3-5534075D0D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{829AE8ED-45E1-4F31-B65E-E75D41917891}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>In Returns  sheet rate/13</t>
+  </si>
+  <si>
+    <t>dWIBOR3m</t>
+  </si>
+  <si>
+    <t>dTenYPL</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A25BAC-A915-40C4-887C-670A87583871}">
   <dimension ref="A1:I617"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" workbookViewId="0">
+    <sheetView topLeftCell="A601" workbookViewId="0">
       <selection activeCell="H618" sqref="H618"/>
     </sheetView>
   </sheetViews>
@@ -12125,19 +12131,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B758B9-60FA-43E4-B0DC-3A660011F3DB}">
-  <dimension ref="A1:I616"/>
+  <dimension ref="A1:K616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362:G409"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="K616" sqref="K362:K616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12165,8 +12172,14 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26695</v>
       </c>
@@ -12174,7 +12187,7 @@
         <v>2.3534398144018365E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26723</v>
       </c>
@@ -12182,7 +12195,7 @@
         <v>7.0437424193530163E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26754</v>
       </c>
@@ -12190,7 +12203,7 @@
         <v>9.3204419889501011E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26784</v>
       </c>
@@ -12198,7 +12211,7 @@
         <v>6.9298855419377414E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26815</v>
       </c>
@@ -12206,7 +12219,7 @@
         <v>6.8821927340134703E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26845</v>
       </c>
@@ -12214,7 +12227,7 @@
         <v>6.8351519012628259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26876</v>
       </c>
@@ -12222,7 +12235,7 @@
         <v>2.2575542268816751E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26907</v>
       </c>
@@ -12230,7 +12243,7 @@
         <v>1.8062555509186451E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26937</v>
       </c>
@@ -12238,7 +12251,7 @@
         <v>2.2177610073470522E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26968</v>
       </c>
@@ -12246,7 +12259,7 @@
         <v>8.8461699807032002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26998</v>
       </c>
@@ -12254,7 +12267,7 @@
         <v>6.5803493926430701E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27029</v>
       </c>
@@ -12262,7 +12275,7 @@
         <v>6.5373314674914695E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27060</v>
       </c>
@@ -12270,7 +12283,7 @@
         <v>8.6546995480267785E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27088</v>
       </c>
@@ -12278,7 +12291,7 @@
         <v>1.2878286964040475E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27119</v>
       </c>
@@ -15793,7 +15806,7 @@
         <v>5.6241560100087629E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>37376</v>
       </c>
@@ -15810,7 +15823,7 @@
         <v>5.5927017826653547E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>37407</v>
       </c>
@@ -15827,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>37437</v>
       </c>
@@ -15844,7 +15857,7 @@
         <v>5.562915653281042E-4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>37468</v>
       </c>
@@ -15861,7 +15874,7 @@
         <v>1.1119645541535217E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>37499</v>
       </c>
@@ -15878,7 +15891,7 @@
         <v>3.3321883870867097E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>37529</v>
       </c>
@@ -15895,7 +15908,7 @@
         <v>1.6592492323512786E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>37560</v>
       </c>
@@ -15912,7 +15925,7 @@
         <v>1.6578101715691851E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>37590</v>
       </c>
@@ -15929,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>37621</v>
       </c>
@@ -15946,7 +15959,7 @@
         <v>-2.2067551809069608E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>37652</v>
       </c>
@@ -15973,8 +15986,16 @@
         <f>Indexes!I363/12</f>
         <v>4.7783333333333332E-3</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362">
+        <f>Indexes!H363-Indexes!H362</f>
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="K362">
+        <f>Indexes!I363-Indexes!I362</f>
+        <v>5.7340000000000002E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>37680</v>
       </c>
@@ -16001,8 +16022,16 @@
         <f>Indexes!I364/12</f>
         <v>4.6274999999999997E-3</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363">
+        <f>Indexes!H364-Indexes!H363</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="K363">
+        <f>Indexes!I364-Indexes!I363</f>
+        <v>-1.810000000000006E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>37711</v>
       </c>
@@ -16029,8 +16058,16 @@
         <f>Indexes!I365/12</f>
         <v>4.5649999999999996E-3</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364">
+        <f>Indexes!H365-Indexes!H364</f>
+        <v>-2.8999999999999859E-3</v>
+      </c>
+      <c r="K364">
+        <f>Indexes!I365-Indexes!I364</f>
+        <v>-7.5000000000000067E-4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>37741</v>
       </c>
@@ -16057,8 +16094,16 @@
         <f>Indexes!I366/12</f>
         <v>4.4158333333333332E-3</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365">
+        <f>Indexes!H366-Indexes!H365</f>
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="K365">
+        <f>Indexes!I366-Indexes!I365</f>
+        <v>-1.789999999999993E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>37772</v>
       </c>
@@ -16085,8 +16130,16 @@
         <f>Indexes!I367/12</f>
         <v>4.2158333333333336E-3</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366">
+        <f>Indexes!H367-Indexes!H366</f>
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="K366">
+        <f>Indexes!I367-Indexes!I366</f>
+        <v>-2.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>37802</v>
       </c>
@@ -16113,8 +16166,16 @@
         <f>Indexes!I368/12</f>
         <v>4.2525000000000002E-3</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367">
+        <f>Indexes!H368-Indexes!H367</f>
+        <v>-8.000000000000021E-4</v>
+      </c>
+      <c r="K367">
+        <f>Indexes!I368-Indexes!I367</f>
+        <v>4.3999999999999595E-4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>37833</v>
       </c>
@@ -16141,8 +16202,16 @@
         <f>Indexes!I369/12</f>
         <v>4.7241666666666664E-3</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368">
+        <f>Indexes!H369-Indexes!H368</f>
+        <v>-8.000000000000021E-4</v>
+      </c>
+      <c r="K368">
+        <f>Indexes!I369-Indexes!I368</f>
+        <v>5.6599999999999984E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>37864</v>
       </c>
@@ -16169,8 +16238,16 @@
         <f>Indexes!I370/12</f>
         <v>4.711666666666667E-3</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369">
+        <f>Indexes!H370-Indexes!H369</f>
+        <v>-1.0000000000000078E-3</v>
+      </c>
+      <c r="K369">
+        <f>Indexes!I370-Indexes!I369</f>
+        <v>-1.4999999999999736E-4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>37894</v>
       </c>
@@ -16197,8 +16274,16 @@
         <f>Indexes!I371/12</f>
         <v>5.0949999999999997E-3</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370">
+        <f>Indexes!H371-Indexes!H370</f>
+        <v>1.0000000000000078E-3</v>
+      </c>
+      <c r="K370">
+        <f>Indexes!I371-Indexes!I370</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>37925</v>
       </c>
@@ -16225,8 +16310,16 @@
         <f>Indexes!I372/12</f>
         <v>5.9608333333333327E-3</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371">
+        <f>Indexes!H372-Indexes!H371</f>
+        <v>6.2000000000000041E-3</v>
+      </c>
+      <c r="K371">
+        <f>Indexes!I372-Indexes!I371</f>
+        <v>1.0389999999999996E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>37955</v>
       </c>
@@ -16253,8 +16346,16 @@
         <f>Indexes!I373/12</f>
         <v>6.1616666666666669E-3</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372">
+        <f>Indexes!H373-Indexes!H372</f>
+        <v>-3.0000000000000859E-4</v>
+      </c>
+      <c r="K372">
+        <f>Indexes!I373-Indexes!I372</f>
+        <v>2.4100000000000094E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>37986</v>
       </c>
@@ -16281,8 +16382,16 @@
         <f>Indexes!I374/12</f>
         <v>5.4983333333333334E-3</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373">
+        <f>Indexes!H374-Indexes!H373</f>
+        <v>-2.3000000000000034E-3</v>
+      </c>
+      <c r="K373">
+        <f>Indexes!I374-Indexes!I373</f>
+        <v>-7.9600000000000087E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>38017</v>
       </c>
@@ -16309,8 +16418,16 @@
         <f>Indexes!I375/12</f>
         <v>5.7141666666666669E-3</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374">
+        <f>Indexes!H375-Indexes!H374</f>
+        <v>-1.3999999999999915E-3</v>
+      </c>
+      <c r="K374">
+        <f>Indexes!I375-Indexes!I374</f>
+        <v>2.590000000000009E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>38046</v>
       </c>
@@ -16337,8 +16454,16 @@
         <f>Indexes!I376/12</f>
         <v>5.6691666666666661E-3</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375">
+        <f>Indexes!H376-Indexes!H375</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K375">
+        <f>Indexes!I376-Indexes!I375</f>
+        <v>-5.4000000000001269E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>38077</v>
       </c>
@@ -16365,8 +16490,16 @@
         <f>Indexes!I377/12</f>
         <v>5.5541666666666665E-3</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376">
+        <f>Indexes!H377-Indexes!H376</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K376">
+        <f>Indexes!I377-Indexes!I376</f>
+        <v>-1.3799999999999923E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>38107</v>
       </c>
@@ -16393,8 +16526,16 @@
         <f>Indexes!I378/12</f>
         <v>6.0616666666666666E-3</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377">
+        <f>Indexes!H378-Indexes!H377</f>
+        <v>3.5999999999999921E-3</v>
+      </c>
+      <c r="K377">
+        <f>Indexes!I378-Indexes!I377</f>
+        <v>6.0899999999999982E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>38138</v>
       </c>
@@ -16421,8 +16562,16 @@
         <f>Indexes!I379/12</f>
         <v>6.1599999999999997E-3</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378">
+        <f>Indexes!H379-Indexes!H378</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="K378">
+        <f>Indexes!I379-Indexes!I378</f>
+        <v>1.1800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>38168</v>
       </c>
@@ -16449,8 +16598,16 @@
         <f>Indexes!I380/12</f>
         <v>6.0391666666666658E-3</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379">
+        <f>Indexes!H380-Indexes!H379</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="K379">
+        <f>Indexes!I380-Indexes!I379</f>
+        <v>-1.4500000000000068E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>38199</v>
       </c>
@@ -16477,8 +16634,16 @@
         <f>Indexes!I381/12</f>
         <v>6.2474999999999996E-3</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380">
+        <f>Indexes!H381-Indexes!H380</f>
+        <v>3.600000000000006E-3</v>
+      </c>
+      <c r="K380">
+        <f>Indexes!I381-Indexes!I380</f>
+        <v>2.5000000000000022E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>38230</v>
       </c>
@@ -16505,8 +16670,16 @@
         <f>Indexes!I382/12</f>
         <v>6.0966666666666669E-3</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381">
+        <f>Indexes!H382-Indexes!H381</f>
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="K381">
+        <f>Indexes!I382-Indexes!I381</f>
+        <v>-1.8099999999999922E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>38260</v>
       </c>
@@ -16533,8 +16706,16 @@
         <f>Indexes!I383/12</f>
         <v>5.6408333333333336E-3</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382">
+        <f>Indexes!H383-Indexes!H382</f>
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="K382">
+        <f>Indexes!I383-Indexes!I382</f>
+        <v>-5.4700000000000026E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>38291</v>
       </c>
@@ -16561,8 +16742,16 @@
         <f>Indexes!I384/12</f>
         <v>5.6866666666666663E-3</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383">
+        <f>Indexes!H384-Indexes!H383</f>
+        <v>-6.999999999999923E-4</v>
+      </c>
+      <c r="K383">
+        <f>Indexes!I384-Indexes!I383</f>
+        <v>5.4999999999999494E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>38321</v>
       </c>
@@ -16589,8 +16778,16 @@
         <f>Indexes!I385/12</f>
         <v>5.3325000000000004E-3</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384">
+        <f>Indexes!H385-Indexes!H384</f>
+        <v>-7.0000000000000617E-4</v>
+      </c>
+      <c r="K384">
+        <f>Indexes!I385-Indexes!I384</f>
+        <v>-4.2499999999999899E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>38352</v>
       </c>
@@ -16617,8 +16814,16 @@
         <f>Indexes!I386/12</f>
         <v>4.8383333333333334E-3</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385">
+        <f>Indexes!H386-Indexes!H385</f>
+        <v>-1.2999999999999956E-3</v>
+      </c>
+      <c r="K385">
+        <f>Indexes!I386-Indexes!I385</f>
+        <v>-5.9300000000000047E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>38383</v>
       </c>
@@ -16645,8 +16850,16 @@
         <f>Indexes!I387/12</f>
         <v>4.9800000000000001E-3</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386">
+        <f>Indexes!H387-Indexes!H386</f>
+        <v>-2.9999999999999472E-4</v>
+      </c>
+      <c r="K386">
+        <f>Indexes!I387-Indexes!I386</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>38411</v>
       </c>
@@ -16673,8 +16886,16 @@
         <f>Indexes!I388/12</f>
         <v>4.5725000000000002E-3</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387">
+        <f>Indexes!H388-Indexes!H387</f>
+        <v>-3.0000000000000165E-3</v>
+      </c>
+      <c r="K387">
+        <f>Indexes!I388-Indexes!I387</f>
+        <v>-4.8899999999999985E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>38442</v>
       </c>
@@ -16701,8 +16922,16 @@
         <f>Indexes!I389/12</f>
         <v>4.5674999999999995E-3</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388">
+        <f>Indexes!H389-Indexes!H388</f>
+        <v>-3.9999999999999897E-3</v>
+      </c>
+      <c r="K388">
+        <f>Indexes!I389-Indexes!I388</f>
+        <v>-6.0000000000004494E-5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>38472</v>
       </c>
@@ -16729,8 +16958,16 @@
         <f>Indexes!I390/12</f>
         <v>4.6399999999999992E-3</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389">
+        <f>Indexes!H390-Indexes!H389</f>
+        <v>-3.2000000000000015E-3</v>
+      </c>
+      <c r="K389">
+        <f>Indexes!I390-Indexes!I389</f>
+        <v>8.6999999999999578E-4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>38503</v>
       </c>
@@ -16757,8 +16994,16 @@
         <f>Indexes!I391/12</f>
         <v>4.2708333333333331E-3</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390">
+        <f>Indexes!H391-Indexes!H390</f>
+        <v>-1.4999999999999944E-3</v>
+      </c>
+      <c r="K390">
+        <f>Indexes!I391-Indexes!I390</f>
+        <v>-4.4299999999999964E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>38533</v>
       </c>
@@ -16785,8 +17030,16 @@
         <f>Indexes!I392/12</f>
         <v>3.9024999999999997E-3</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391">
+        <f>Indexes!H392-Indexes!H391</f>
+        <v>-5.400000000000002E-3</v>
+      </c>
+      <c r="K391">
+        <f>Indexes!I392-Indexes!I391</f>
+        <v>-4.4200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>38564</v>
       </c>
@@ -16813,8 +17066,16 @@
         <f>Indexes!I393/12</f>
         <v>4.0916666666666671E-3</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392">
+        <f>Indexes!H393-Indexes!H392</f>
+        <v>-2.3000000000000034E-3</v>
+      </c>
+      <c r="K392">
+        <f>Indexes!I393-Indexes!I392</f>
+        <v>2.2700000000000081E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>38595</v>
       </c>
@@ -16841,8 +17102,16 @@
         <f>Indexes!I394/12</f>
         <v>3.9508333333333331E-3</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393">
+        <f>Indexes!H394-Indexes!H393</f>
+        <v>-5.9999999999999637E-4</v>
+      </c>
+      <c r="K393">
+        <f>Indexes!I394-Indexes!I393</f>
+        <v>-1.6900000000000109E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>38625</v>
       </c>
@@ -16869,8 +17138,16 @@
         <f>Indexes!I395/12</f>
         <v>3.8725000000000005E-3</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394">
+        <f>Indexes!H395-Indexes!H394</f>
+        <v>-1.1000000000000038E-3</v>
+      </c>
+      <c r="K394">
+        <f>Indexes!I395-Indexes!I394</f>
+        <v>-9.3999999999998946E-4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>38656</v>
       </c>
@@ -16897,8 +17174,16 @@
         <f>Indexes!I396/12</f>
         <v>4.4108333333333334E-3</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395">
+        <f>Indexes!H396-Indexes!H395</f>
+        <v>1.1999999999999997E-3</v>
+      </c>
+      <c r="K395">
+        <f>Indexes!I396-Indexes!I395</f>
+        <v>6.4600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>38686</v>
       </c>
@@ -16925,8 +17210,16 @@
         <f>Indexes!I397/12</f>
         <v>4.4441666666666666E-3</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396">
+        <f>Indexes!H397-Indexes!H396</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K396">
+        <f>Indexes!I397-Indexes!I396</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>38717</v>
       </c>
@@ -16953,8 +17246,16 @@
         <f>Indexes!I398/12</f>
         <v>4.2499999999999994E-3</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397">
+        <f>Indexes!H398-Indexes!H397</f>
+        <v>-3.0000000000000165E-4</v>
+      </c>
+      <c r="K397">
+        <f>Indexes!I398-Indexes!I397</f>
+        <v>-2.3300000000000057E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>38748</v>
       </c>
@@ -16981,8 +17282,16 @@
         <f>Indexes!I399/12</f>
         <v>4.2091666666666666E-3</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398">
+        <f>Indexes!H399-Indexes!H398</f>
+        <v>-1.9999999999999948E-3</v>
+      </c>
+      <c r="K398">
+        <f>Indexes!I399-Indexes!I398</f>
+        <v>-4.8999999999999738E-4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>38776</v>
       </c>
@@ -17009,8 +17318,16 @@
         <f>Indexes!I400/12</f>
         <v>3.8516666666666664E-3</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399">
+        <f>Indexes!H400-Indexes!H399</f>
+        <v>-2.4000000000000063E-3</v>
+      </c>
+      <c r="K399">
+        <f>Indexes!I400-Indexes!I399</f>
+        <v>-4.2900000000000021E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>38807</v>
       </c>
@@ -17037,8 +17354,16 @@
         <f>Indexes!I401/12</f>
         <v>4.159166666666666E-3</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400">
+        <f>Indexes!H401-Indexes!H400</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K400">
+        <f>Indexes!I401-Indexes!I400</f>
+        <v>3.6899999999999988E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>38837</v>
       </c>
@@ -17065,8 +17390,16 @@
         <f>Indexes!I402/12</f>
         <v>4.3074999999999997E-3</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401">
+        <f>Indexes!H402-Indexes!H401</f>
+        <v>-4.0000000000000452E-4</v>
+      </c>
+      <c r="K401">
+        <f>Indexes!I402-Indexes!I401</f>
+        <v>1.7799999999999969E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>38868</v>
       </c>
@@ -17093,8 +17426,16 @@
         <f>Indexes!I403/12</f>
         <v>4.4425000000000003E-3</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402">
+        <f>Indexes!H403-Indexes!H402</f>
+        <v>2.0000000000000573E-4</v>
+      </c>
+      <c r="K402">
+        <f>Indexes!I403-Indexes!I402</f>
+        <v>1.6200000000000103E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>38898</v>
       </c>
@@ -17121,8 +17462,16 @@
         <f>Indexes!I404/12</f>
         <v>4.7374999999999995E-3</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403">
+        <f>Indexes!H404-Indexes!H403</f>
+        <v>5.9999999999999637E-4</v>
+      </c>
+      <c r="K403">
+        <f>Indexes!I404-Indexes!I403</f>
+        <v>3.5399999999999945E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>38929</v>
       </c>
@@ -17149,8 +17498,16 @@
         <f>Indexes!I405/12</f>
         <v>4.6674999999999998E-3</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404">
+        <f>Indexes!H405-Indexes!H404</f>
+        <v>-3.0000000000000165E-4</v>
+      </c>
+      <c r="K404">
+        <f>Indexes!I405-Indexes!I404</f>
+        <v>-8.4000000000000047E-4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>38960</v>
       </c>
@@ -17177,8 +17534,16 @@
         <f>Indexes!I406/12</f>
         <v>4.6616666666666673E-3</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405">
+        <f>Indexes!H406-Indexes!H405</f>
+        <v>1.000000000000098E-4</v>
+      </c>
+      <c r="K405">
+        <f>Indexes!I406-Indexes!I405</f>
+        <v>-6.9999999999993678E-5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>38990</v>
       </c>
@@ -17205,8 +17570,16 @@
         <f>Indexes!I407/12</f>
         <v>4.5916666666666666E-3</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406">
+        <f>Indexes!H407-Indexes!H406</f>
+        <v>2.9999999999998778E-4</v>
+      </c>
+      <c r="K406">
+        <f>Indexes!I407-Indexes!I406</f>
+        <v>-8.4000000000000741E-4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>39021</v>
       </c>
@@ -17233,8 +17606,16 @@
         <f>Indexes!I408/12</f>
         <v>4.4175000000000004E-3</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407">
+        <f>Indexes!H408-Indexes!H407</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K407">
+        <f>Indexes!I408-Indexes!I407</f>
+        <v>-2.0899999999999946E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>39051</v>
       </c>
@@ -17261,8 +17642,16 @@
         <f>Indexes!I409/12</f>
         <v>4.3108333333333332E-3</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408">
+        <f>Indexes!H409-Indexes!H408</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K408">
+        <f>Indexes!I409-Indexes!I408</f>
+        <v>-1.2800000000000034E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>39082</v>
       </c>
@@ -17289,8 +17678,16 @@
         <f>Indexes!I410/12</f>
         <v>4.3524999999999996E-3</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409">
+        <f>Indexes!H410-Indexes!H409</f>
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <f>Indexes!I410-Indexes!I409</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>39113</v>
       </c>
@@ -17320,8 +17717,16 @@
         <f>Indexes!I411/12</f>
         <v>4.3E-3</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410">
+        <f>Indexes!H411-Indexes!H410</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K410">
+        <f>Indexes!I411-Indexes!I410</f>
+        <v>-6.2999999999999862E-4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>39141</v>
       </c>
@@ -17351,8 +17756,16 @@
         <f>Indexes!I412/12</f>
         <v>4.3533333333333332E-3</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411">
+        <f>Indexes!H412-Indexes!H411</f>
+        <v>2.9999999999998778E-4</v>
+      </c>
+      <c r="K411">
+        <f>Indexes!I412-Indexes!I411</f>
+        <v>6.4000000000000168E-4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>39172</v>
       </c>
@@ -17382,8 +17795,16 @@
         <f>Indexes!I413/12</f>
         <v>4.3408333333333328E-3</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412">
+        <f>Indexes!H413-Indexes!H412</f>
+        <v>2.0000000000000573E-4</v>
+      </c>
+      <c r="K412">
+        <f>Indexes!I413-Indexes!I412</f>
+        <v>-1.500000000000043E-4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>39202</v>
       </c>
@@ -17413,8 +17834,16 @@
         <f>Indexes!I414/12</f>
         <v>4.4391666666666668E-3</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413">
+        <f>Indexes!H414-Indexes!H413</f>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="K413">
+        <f>Indexes!I414-Indexes!I413</f>
+        <v>1.1800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>39233</v>
       </c>
@@ -17444,8 +17873,16 @@
         <f>Indexes!I415/12</f>
         <v>4.4391666666666668E-3</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414">
+        <f>Indexes!H415-Indexes!H414</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K414">
+        <f>Indexes!I415-Indexes!I414</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>39263</v>
       </c>
@@ -17475,8 +17912,16 @@
         <f>Indexes!I416/12</f>
         <v>4.7008333333333338E-3</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415">
+        <f>Indexes!H416-Indexes!H415</f>
+        <v>2.700000000000001E-3</v>
+      </c>
+      <c r="K415">
+        <f>Indexes!I416-Indexes!I415</f>
+        <v>3.1400000000000039E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>39294</v>
       </c>
@@ -17506,8 +17951,16 @@
         <f>Indexes!I417/12</f>
         <v>4.6658333333333335E-3</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416">
+        <f>Indexes!H417-Indexes!H416</f>
+        <v>9.9999999999999395E-4</v>
+      </c>
+      <c r="K416">
+        <f>Indexes!I417-Indexes!I416</f>
+        <v>-4.1999999999999676E-4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>39325</v>
       </c>
@@ -17537,8 +17990,16 @@
         <f>Indexes!I418/12</f>
         <v>4.8241666666666667E-3</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417">
+        <f>Indexes!H418-Indexes!H417</f>
+        <v>2.2000000000000075E-3</v>
+      </c>
+      <c r="K417">
+        <f>Indexes!I418-Indexes!I417</f>
+        <v>1.899999999999992E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>39355</v>
       </c>
@@ -17568,8 +18029,16 @@
         <f>Indexes!I419/12</f>
         <v>4.7499999999999999E-3</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418">
+        <f>Indexes!H419-Indexes!H418</f>
+        <v>6.999999999999923E-4</v>
+      </c>
+      <c r="K418">
+        <f>Indexes!I419-Indexes!I418</f>
+        <v>-8.8999999999999496E-4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>39386</v>
       </c>
@@ -17599,8 +18068,16 @@
         <f>Indexes!I420/12</f>
         <v>4.5950000000000001E-3</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419">
+        <f>Indexes!H420-Indexes!H419</f>
+        <v>1.1000000000000038E-3</v>
+      </c>
+      <c r="K419">
+        <f>Indexes!I420-Indexes!I419</f>
+        <v>-1.8600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>39416</v>
       </c>
@@ -17630,8 +18107,16 @@
         <f>Indexes!I421/12</f>
         <v>4.8141666666666671E-3</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420">
+        <f>Indexes!H421-Indexes!H420</f>
+        <v>3.4999999999999962E-3</v>
+      </c>
+      <c r="K420">
+        <f>Indexes!I421-Indexes!I420</f>
+        <v>2.6300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>39447</v>
       </c>
@@ -17661,8 +18146,16 @@
         <f>Indexes!I422/12</f>
         <v>4.9300000000000004E-3</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421">
+        <f>Indexes!H422-Indexes!H421</f>
+        <v>1.4000000000000054E-3</v>
+      </c>
+      <c r="K421">
+        <f>Indexes!I422-Indexes!I421</f>
+        <v>1.3900000000000023E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>39478</v>
       </c>
@@ -17692,8 +18185,16 @@
         <f>Indexes!I423/12</f>
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422">
+        <f>Indexes!H423-Indexes!H422</f>
+        <v>-5.0000000000000044E-4</v>
+      </c>
+      <c r="K422">
+        <f>Indexes!I423-Indexes!I422</f>
+        <v>-2.2800000000000042E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>39507</v>
       </c>
@@ -17723,8 +18224,16 @@
         <f>Indexes!I424/12</f>
         <v>4.9775000000000002E-3</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423">
+        <f>Indexes!H424-Indexes!H423</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K423">
+        <f>Indexes!I424-Indexes!I423</f>
+        <v>2.8499999999999984E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>39538</v>
       </c>
@@ -17754,8 +18263,16 @@
         <f>Indexes!I425/12</f>
         <v>4.975833333333333E-3</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424">
+        <f>Indexes!H425-Indexes!H424</f>
+        <v>2.1000000000000046E-3</v>
+      </c>
+      <c r="K424">
+        <f>Indexes!I425-Indexes!I424</f>
+        <v>-1.9999999999999185E-5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>39568</v>
       </c>
@@ -17785,8 +18302,16 @@
         <f>Indexes!I426/12</f>
         <v>4.9841666666666671E-3</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425">
+        <f>Indexes!H426-Indexes!H425</f>
+        <v>1.899999999999992E-3</v>
+      </c>
+      <c r="K425">
+        <f>Indexes!I426-Indexes!I425</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>39599</v>
       </c>
@@ -17816,8 +18341,16 @@
         <f>Indexes!I427/12</f>
         <v>5.2433333333333334E-3</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426">
+        <f>Indexes!H427-Indexes!H426</f>
+        <v>1.4000000000000123E-3</v>
+      </c>
+      <c r="K426">
+        <f>Indexes!I427-Indexes!I426</f>
+        <v>3.1100000000000017E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>39629</v>
       </c>
@@ -17847,8 +18380,16 @@
         <f>Indexes!I428/12</f>
         <v>5.5233333333333341E-3</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427">
+        <f>Indexes!H428-Indexes!H427</f>
+        <v>1.6999999999999932E-3</v>
+      </c>
+      <c r="K427">
+        <f>Indexes!I428-Indexes!I427</f>
+        <v>3.3600000000000019E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>39660</v>
       </c>
@@ -17878,8 +18419,16 @@
         <f>Indexes!I429/12</f>
         <v>5.2258333333333332E-3</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428">
+        <f>Indexes!H429-Indexes!H428</f>
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="K428">
+        <f>Indexes!I429-Indexes!I428</f>
+        <v>-3.5700000000000037E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>39691</v>
       </c>
@@ -17909,8 +18458,16 @@
         <f>Indexes!I430/12</f>
         <v>5.0575000000000004E-3</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429">
+        <f>Indexes!H430-Indexes!H429</f>
+        <v>-5.9999999999998943E-4</v>
+      </c>
+      <c r="K429">
+        <f>Indexes!I430-Indexes!I429</f>
+        <v>-2.020000000000001E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>39721</v>
       </c>
@@ -17940,8 +18497,16 @@
         <f>Indexes!I431/12</f>
         <v>4.8941666666666673E-3</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430">
+        <f>Indexes!H431-Indexes!H430</f>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="K430">
+        <f>Indexes!I431-Indexes!I430</f>
+        <v>-1.9599999999999965E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>39752</v>
       </c>
@@ -17971,8 +18536,16 @@
         <f>Indexes!I432/12</f>
         <v>5.5191666666666661E-3</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431">
+        <f>Indexes!H432-Indexes!H431</f>
+        <v>2.1999999999999936E-3</v>
+      </c>
+      <c r="K431">
+        <f>Indexes!I432-Indexes!I431</f>
+        <v>7.4999999999999928E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>39782</v>
       </c>
@@ -18002,8 +18575,16 @@
         <f>Indexes!I433/12</f>
         <v>4.9208333333333335E-3</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432">
+        <f>Indexes!H433-Indexes!H432</f>
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="K432">
+        <f>Indexes!I433-Indexes!I432</f>
+        <v>-7.1799999999999919E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>39813</v>
       </c>
@@ -18033,8 +18614,16 @@
         <f>Indexes!I434/12</f>
         <v>4.4891666666666665E-3</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433">
+        <f>Indexes!H434-Indexes!H433</f>
+        <v>-6.7999999999999935E-3</v>
+      </c>
+      <c r="K433">
+        <f>Indexes!I434-Indexes!I433</f>
+        <v>-5.180000000000011E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>39844</v>
       </c>
@@ -18064,8 +18653,16 @@
         <f>Indexes!I435/12</f>
         <v>4.7958333333333334E-3</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434">
+        <f>Indexes!H435-Indexes!H434</f>
+        <v>-1.0199999999999994E-2</v>
+      </c>
+      <c r="K434">
+        <f>Indexes!I435-Indexes!I434</f>
+        <v>3.6800000000000027E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>39872</v>
       </c>
@@ -18095,8 +18692,16 @@
         <f>Indexes!I436/12</f>
         <v>5.1450000000000003E-3</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435">
+        <f>Indexes!H436-Indexes!H435</f>
+        <v>-3.5000000000000031E-3</v>
+      </c>
+      <c r="K435">
+        <f>Indexes!I436-Indexes!I435</f>
+        <v>4.1900000000000062E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>39903</v>
       </c>
@@ -18126,8 +18731,16 @@
         <f>Indexes!I437/12</f>
         <v>5.2474999999999996E-3</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436">
+        <f>Indexes!H437-Indexes!H436</f>
+        <v>-3.4000000000000002E-3</v>
+      </c>
+      <c r="K436">
+        <f>Indexes!I437-Indexes!I436</f>
+        <v>1.229999999999995E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>39933</v>
       </c>
@@ -18157,8 +18770,16 @@
         <f>Indexes!I438/12</f>
         <v>5.1741666666666663E-3</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437">
+        <f>Indexes!H438-Indexes!H437</f>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="K437">
+        <f>Indexes!I438-Indexes!I437</f>
+        <v>-8.7999999999999884E-4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>39964</v>
       </c>
@@ -18188,8 +18809,16 @@
         <f>Indexes!I439/12</f>
         <v>5.2525000000000002E-3</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438">
+        <f>Indexes!H439-Indexes!H438</f>
+        <v>3.2000000000000015E-3</v>
+      </c>
+      <c r="K438">
+        <f>Indexes!I439-Indexes!I438</f>
+        <v>9.4000000000000333E-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>39994</v>
       </c>
@@ -18219,8 +18848,16 @@
         <f>Indexes!I440/12</f>
         <v>5.224166666666666E-3</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439">
+        <f>Indexes!H440-Indexes!H439</f>
+        <v>-1.799999999999996E-3</v>
+      </c>
+      <c r="K439">
+        <f>Indexes!I440-Indexes!I439</f>
+        <v>-3.4000000000000696E-4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>40025</v>
       </c>
@@ -18250,8 +18887,16 @@
         <f>Indexes!I441/12</f>
         <v>5.0949999999999997E-3</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440">
+        <f>Indexes!H441-Indexes!H440</f>
+        <v>-2.700000000000001E-3</v>
+      </c>
+      <c r="K440">
+        <f>Indexes!I441-Indexes!I440</f>
+        <v>-1.5499999999999958E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>40056</v>
       </c>
@@ -18281,8 +18926,16 @@
         <f>Indexes!I442/12</f>
         <v>5.0983333333333341E-3</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441">
+        <f>Indexes!H442-Indexes!H441</f>
+        <v>9.9999999999995925E-5</v>
+      </c>
+      <c r="K441">
+        <f>Indexes!I442-Indexes!I441</f>
+        <v>4.0000000000005309E-5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>40086</v>
       </c>
@@ -18312,8 +18965,16 @@
         <f>Indexes!I443/12</f>
         <v>5.1508333333333337E-3</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442">
+        <f>Indexes!H443-Indexes!H442</f>
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <f>Indexes!I443-Indexes!I442</f>
+        <v>6.2999999999999862E-4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>40117</v>
       </c>
@@ -18343,8 +19004,16 @@
         <f>Indexes!I444/12</f>
         <v>5.1225000000000003E-3</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443">
+        <f>Indexes!H444-Indexes!H443</f>
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <f>Indexes!I444-Indexes!I443</f>
+        <v>-3.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>40147</v>
       </c>
@@ -18374,8 +19043,16 @@
         <f>Indexes!I445/12</f>
         <v>5.1608333333333332E-3</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444">
+        <f>Indexes!H445-Indexes!H444</f>
+        <v>1.000000000000098E-4</v>
+      </c>
+      <c r="K444">
+        <f>Indexes!I445-Indexes!I444</f>
+        <v>4.5999999999999514E-4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>40178</v>
       </c>
@@ -18405,8 +19082,16 @@
         <f>Indexes!I446/12</f>
         <v>5.2158333333333336E-3</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445">
+        <f>Indexes!H446-Indexes!H445</f>
+        <v>7.9999999999998822E-4</v>
+      </c>
+      <c r="K445">
+        <f>Indexes!I446-Indexes!I445</f>
+        <v>6.600000000000078E-4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>40209</v>
       </c>
@@ -18436,8 +19121,16 @@
         <f>Indexes!I447/12</f>
         <v>5.0908333333333335E-3</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446">
+        <f>Indexes!H447-Indexes!H446</f>
+        <v>-7.9999999999998822E-4</v>
+      </c>
+      <c r="K446">
+        <f>Indexes!I447-Indexes!I446</f>
+        <v>-1.5000000000000083E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>40237</v>
       </c>
@@ -18467,8 +19160,16 @@
         <f>Indexes!I448/12</f>
         <v>5.0458333333333336E-3</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447">
+        <f>Indexes!H448-Indexes!H447</f>
+        <v>-4.0000000000000452E-4</v>
+      </c>
+      <c r="K447">
+        <f>Indexes!I448-Indexes!I447</f>
+        <v>-5.3999999999999881E-4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>40268</v>
       </c>
@@ -18498,8 +19199,16 @@
         <f>Indexes!I449/12</f>
         <v>4.5916666666666666E-3</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448">
+        <f>Indexes!H449-Indexes!H448</f>
+        <v>-5.0000000000000738E-4</v>
+      </c>
+      <c r="K448">
+        <f>Indexes!I449-Indexes!I448</f>
+        <v>-5.4500000000000035E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>40298</v>
       </c>
@@ -18529,8 +19238,16 @@
         <f>Indexes!I450/12</f>
         <v>4.6833333333333336E-3</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449">
+        <f>Indexes!H450-Indexes!H449</f>
+        <v>-2.3999999999999994E-3</v>
+      </c>
+      <c r="K449">
+        <f>Indexes!I450-Indexes!I449</f>
+        <v>1.1000000000000038E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>40329</v>
       </c>
@@ -18560,8 +19277,16 @@
         <f>Indexes!I451/12</f>
         <v>4.8358333333333335E-3</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450">
+        <f>Indexes!H451-Indexes!H450</f>
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <f>Indexes!I451-Indexes!I450</f>
+        <v>1.8299999999999983E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>40359</v>
       </c>
@@ -18591,8 +19316,16 @@
         <f>Indexes!I452/12</f>
         <v>4.9508333333333331E-3</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451">
+        <f>Indexes!H452-Indexes!H451</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K451">
+        <f>Indexes!I452-Indexes!I451</f>
+        <v>1.3799999999999993E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>40390</v>
       </c>
@@ -18622,8 +19355,16 @@
         <f>Indexes!I453/12</f>
         <v>4.9024999999999997E-3</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452">
+        <f>Indexes!H453-Indexes!H452</f>
+        <v>-5.0000000000000044E-4</v>
+      </c>
+      <c r="K452">
+        <f>Indexes!I453-Indexes!I452</f>
+        <v>-5.7999999999999718E-4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>40421</v>
       </c>
@@ -18653,8 +19394,16 @@
         <f>Indexes!I454/12</f>
         <v>4.5274999999999994E-3</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453">
+        <f>Indexes!H454-Indexes!H453</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K453">
+        <f>Indexes!I454-Indexes!I453</f>
+        <v>-4.500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>40451</v>
       </c>
@@ -18684,8 +19433,16 @@
         <f>Indexes!I455/12</f>
         <v>4.5858333333333333E-3</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454">
+        <f>Indexes!H455-Indexes!H454</f>
+        <v>2.9999999999999472E-4</v>
+      </c>
+      <c r="K454">
+        <f>Indexes!I455-Indexes!I454</f>
+        <v>7.0000000000000617E-4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>40482</v>
       </c>
@@ -18715,8 +19472,16 @@
         <f>Indexes!I456/12</f>
         <v>4.7241666666666664E-3</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455">
+        <f>Indexes!H456-Indexes!H455</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K455">
+        <f>Indexes!I456-Indexes!I455</f>
+        <v>1.6599999999999948E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>40512</v>
       </c>
@@ -18746,8 +19511,16 @@
         <f>Indexes!I457/12</f>
         <v>5.0458333333333336E-3</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456">
+        <f>Indexes!H457-Indexes!H456</f>
+        <v>3.0000000000000165E-4</v>
+      </c>
+      <c r="K456">
+        <f>Indexes!I457-Indexes!I456</f>
+        <v>3.8600000000000023E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>40543</v>
       </c>
@@ -18777,8 +19550,16 @@
         <f>Indexes!I458/12</f>
         <v>5.0458333333333336E-3</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457">
+        <f>Indexes!H458-Indexes!H457</f>
+        <v>6.9999999999999923E-4</v>
+      </c>
+      <c r="K457">
+        <f>Indexes!I458-Indexes!I457</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>40574</v>
       </c>
@@ -18808,8 +19589,16 @@
         <f>Indexes!I459/12</f>
         <v>5.2866666666666661E-3</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458">
+        <f>Indexes!H459-Indexes!H458</f>
+        <v>1.3999999999999985E-3</v>
+      </c>
+      <c r="K458">
+        <f>Indexes!I459-Indexes!I458</f>
+        <v>2.8899999999999967E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>40602</v>
       </c>
@@ -18839,8 +19628,16 @@
         <f>Indexes!I460/12</f>
         <v>5.1966666666666663E-3</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459">
+        <f>Indexes!H460-Indexes!H459</f>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="K459">
+        <f>Indexes!I460-Indexes!I459</f>
+        <v>-1.0799999999999976E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>40633</v>
       </c>
@@ -18870,8 +19667,16 @@
         <f>Indexes!I461/12</f>
         <v>5.2274999999999995E-3</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460">
+        <f>Indexes!H461-Indexes!H460</f>
+        <v>4.0000000000000452E-4</v>
+      </c>
+      <c r="K460">
+        <f>Indexes!I461-Indexes!I460</f>
+        <v>3.6999999999999533E-4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>40663</v>
       </c>
@@ -18901,8 +19706,16 @@
         <f>Indexes!I462/12</f>
         <v>5.1191666666666668E-3</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461">
+        <f>Indexes!H462-Indexes!H461</f>
+        <v>1.0999999999999899E-3</v>
+      </c>
+      <c r="K461">
+        <f>Indexes!I462-Indexes!I461</f>
+        <v>-1.2999999999999956E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>40694</v>
       </c>
@@ -18932,8 +19745,16 @@
         <f>Indexes!I463/12</f>
         <v>5.0508333333333334E-3</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462">
+        <f>Indexes!H463-Indexes!H462</f>
+        <v>1.5000000000000083E-3</v>
+      </c>
+      <c r="K462">
+        <f>Indexes!I463-Indexes!I462</f>
+        <v>-8.2000000000000128E-4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>40724</v>
       </c>
@@ -18963,8 +19784,16 @@
         <f>Indexes!I464/12</f>
         <v>4.8174999999999997E-3</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463">
+        <f>Indexes!H464-Indexes!H463</f>
+        <v>2.3999999999999994E-3</v>
+      </c>
+      <c r="K463">
+        <f>Indexes!I464-Indexes!I463</f>
+        <v>-2.7999999999999969E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>40755</v>
       </c>
@@ -18994,8 +19823,16 @@
         <f>Indexes!I465/12</f>
         <v>4.8283333333333329E-3</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464">
+        <f>Indexes!H465-Indexes!H464</f>
+        <v>1.9999999999999879E-4</v>
+      </c>
+      <c r="K464">
+        <f>Indexes!I465-Indexes!I464</f>
+        <v>1.2999999999999817E-4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>40786</v>
       </c>
@@ -19025,8 +19862,16 @@
         <f>Indexes!I466/12</f>
         <v>4.678333333333333E-3</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465">
+        <f>Indexes!H466-Indexes!H465</f>
+        <v>9.9999999999995925E-5</v>
+      </c>
+      <c r="K465">
+        <f>Indexes!I466-Indexes!I465</f>
+        <v>-1.800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>40816</v>
       </c>
@@ -19056,8 +19901,16 @@
         <f>Indexes!I467/12</f>
         <v>4.9316666666666667E-3</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466">
+        <f>Indexes!H467-Indexes!H466</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K466">
+        <f>Indexes!I467-Indexes!I466</f>
+        <v>3.040000000000008E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>40847</v>
       </c>
@@ -19087,8 +19940,16 @@
         <f>Indexes!I468/12</f>
         <v>4.7783333333333332E-3</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467">
+        <f>Indexes!H468-Indexes!H467</f>
+        <v>1.5000000000000083E-3</v>
+      </c>
+      <c r="K467">
+        <f>Indexes!I468-Indexes!I467</f>
+        <v>-1.8400000000000014E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>40877</v>
       </c>
@@ -19118,8 +19979,16 @@
         <f>Indexes!I469/12</f>
         <v>4.9366666666666665E-3</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468">
+        <f>Indexes!H469-Indexes!H468</f>
+        <v>5.9999999999998943E-4</v>
+      </c>
+      <c r="K468">
+        <f>Indexes!I469-Indexes!I468</f>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>40908</v>
       </c>
@@ -19149,8 +20018,16 @@
         <f>Indexes!I470/12</f>
         <v>4.9100000000000003E-3</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469">
+        <f>Indexes!H470-Indexes!H469</f>
+        <v>2.0000000000000573E-4</v>
+      </c>
+      <c r="K469">
+        <f>Indexes!I470-Indexes!I469</f>
+        <v>-3.2000000000000084E-4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>40939</v>
       </c>
@@ -19180,8 +20057,16 @@
         <f>Indexes!I471/12</f>
         <v>4.6483333333333333E-3</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470">
+        <f>Indexes!H471-Indexes!H470</f>
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <f>Indexes!I471-Indexes!I470</f>
+        <v>-3.139999999999997E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>40968</v>
       </c>
@@ -19211,8 +20096,16 @@
         <f>Indexes!I472/12</f>
         <v>4.5508333333333338E-3</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471">
+        <f>Indexes!H472-Indexes!H471</f>
+        <v>-3.0000000000000165E-4</v>
+      </c>
+      <c r="K471">
+        <f>Indexes!I472-Indexes!I471</f>
+        <v>-1.1699999999999974E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>40999</v>
       </c>
@@ -19242,8 +20135,16 @@
         <f>Indexes!I473/12</f>
         <v>4.5849999999999997E-3</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472">
+        <f>Indexes!H473-Indexes!H472</f>
+        <v>-1.9999999999999185E-4</v>
+      </c>
+      <c r="K472">
+        <f>Indexes!I473-Indexes!I472</f>
+        <v>4.099999999999937E-4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>41029</v>
       </c>
@@ -19273,8 +20174,16 @@
         <f>Indexes!I474/12</f>
         <v>4.5075000000000002E-3</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473">
+        <f>Indexes!H474-Indexes!H473</f>
+        <v>9.9999999999995925E-5</v>
+      </c>
+      <c r="K473">
+        <f>Indexes!I474-Indexes!I473</f>
+        <v>-9.3000000000000027E-4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>41060</v>
       </c>
@@ -19304,8 +20213,16 @@
         <f>Indexes!I475/12</f>
         <v>4.5408333333333334E-3</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474">
+        <f>Indexes!H475-Indexes!H474</f>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="K474">
+        <f>Indexes!I475-Indexes!I474</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>41090</v>
       </c>
@@ -19335,8 +20252,16 @@
         <f>Indexes!I476/12</f>
         <v>4.2908333333333331E-3</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475">
+        <f>Indexes!H476-Indexes!H475</f>
+        <v>1.9999999999999185E-4</v>
+      </c>
+      <c r="K475">
+        <f>Indexes!I476-Indexes!I475</f>
+        <v>-2.9999999999999957E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>41121</v>
       </c>
@@ -19366,8 +20291,16 @@
         <f>Indexes!I477/12</f>
         <v>4.0549999999999996E-3</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476">
+        <f>Indexes!H477-Indexes!H476</f>
+        <v>-1.9999999999999185E-4</v>
+      </c>
+      <c r="K476">
+        <f>Indexes!I477-Indexes!I476</f>
+        <v>-2.8300000000000061E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>41152</v>
       </c>
@@ -19397,8 +20330,16 @@
         <f>Indexes!I478/12</f>
         <v>4.0383333333333339E-3</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477">
+        <f>Indexes!H478-Indexes!H477</f>
+        <v>-1.2000000000000066E-3</v>
+      </c>
+      <c r="K477">
+        <f>Indexes!I478-Indexes!I477</f>
+        <v>-1.9999999999999185E-4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>41182</v>
       </c>
@@ -19428,8 +20369,16 @@
         <f>Indexes!I479/12</f>
         <v>3.9091666666666667E-3</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478">
+        <f>Indexes!H479-Indexes!H478</f>
+        <v>-6.9999999999999923E-4</v>
+      </c>
+      <c r="K478">
+        <f>Indexes!I479-Indexes!I478</f>
+        <v>-1.5500000000000028E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>41213</v>
       </c>
@@ -19459,8 +20408,16 @@
         <f>Indexes!I480/12</f>
         <v>3.8116666666666663E-3</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479">
+        <f>Indexes!H480-Indexes!H479</f>
+        <v>-1.8999999999999989E-3</v>
+      </c>
+      <c r="K479">
+        <f>Indexes!I480-Indexes!I479</f>
+        <v>-1.1700000000000044E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>41243</v>
       </c>
@@ -19490,8 +20447,16 @@
         <f>Indexes!I481/12</f>
         <v>3.3533333333333332E-3</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480">
+        <f>Indexes!H481-Indexes!H480</f>
+        <v>-2.3999999999999994E-3</v>
+      </c>
+      <c r="K480">
+        <f>Indexes!I481-Indexes!I480</f>
+        <v>-5.4999999999999979E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>41274</v>
       </c>
@@ -19521,8 +20486,16 @@
         <f>Indexes!I482/12</f>
         <v>3.1083333333333332E-3</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481">
+        <f>Indexes!H482-Indexes!H481</f>
+        <v>-3.7999999999999978E-3</v>
+      </c>
+      <c r="K481">
+        <f>Indexes!I482-Indexes!I481</f>
+        <v>-2.9399999999999982E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>41305</v>
       </c>
@@ -19552,8 +20525,16 @@
         <f>Indexes!I483/12</f>
         <v>3.2699999999999999E-3</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482">
+        <f>Indexes!H483-Indexes!H482</f>
+        <v>-1.6000000000000042E-3</v>
+      </c>
+      <c r="K482">
+        <f>Indexes!I483-Indexes!I482</f>
+        <v>1.9399999999999973E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>41333</v>
       </c>
@@ -19583,8 +20564,16 @@
         <f>Indexes!I484/12</f>
         <v>3.3116666666666672E-3</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483">
+        <f>Indexes!H484-Indexes!H483</f>
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="K483">
+        <f>Indexes!I484-Indexes!I483</f>
+        <v>5.0000000000000738E-4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>41364</v>
       </c>
@@ -19614,8 +20603,16 @@
         <f>Indexes!I485/12</f>
         <v>3.2908333333333331E-3</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484">
+        <f>Indexes!H485-Indexes!H484</f>
+        <v>-3.4000000000000002E-3</v>
+      </c>
+      <c r="K484">
+        <f>Indexes!I485-Indexes!I484</f>
+        <v>-2.5000000000000716E-4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>41394</v>
       </c>
@@ -19645,8 +20642,16 @@
         <f>Indexes!I486/12</f>
         <v>2.7183333333333335E-3</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485">
+        <f>Indexes!H486-Indexes!H485</f>
+        <v>-3.0999999999999986E-3</v>
+      </c>
+      <c r="K485">
+        <f>Indexes!I486-Indexes!I485</f>
+        <v>-6.8699999999999942E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>41425</v>
       </c>
@@ -19676,8 +20681,16 @@
         <f>Indexes!I487/12</f>
         <v>3.0133333333333331E-3</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486">
+        <f>Indexes!H487-Indexes!H486</f>
+        <v>-3.4000000000000002E-3</v>
+      </c>
+      <c r="K486">
+        <f>Indexes!I487-Indexes!I486</f>
+        <v>3.5399999999999945E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>41455</v>
       </c>
@@ -19707,8 +20720,16 @@
         <f>Indexes!I488/12</f>
         <v>3.6216666666666667E-3</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487">
+        <f>Indexes!H488-Indexes!H487</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="K487">
+        <f>Indexes!I488-Indexes!I487</f>
+        <v>7.3000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>41486</v>
       </c>
@@ -19738,8 +20759,16 @@
         <f>Indexes!I489/12</f>
         <v>3.4166666666666664E-3</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488">
+        <f>Indexes!H489-Indexes!H488</f>
+        <v>-2.9999999999999818E-4</v>
+      </c>
+      <c r="K488">
+        <f>Indexes!I489-Indexes!I488</f>
+        <v>-2.4600000000000039E-3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>41517</v>
       </c>
@@ -19769,8 +20798,16 @@
         <f>Indexes!I490/12</f>
         <v>3.715E-3</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489">
+        <f>Indexes!H490-Indexes!H489</f>
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <f>Indexes!I490-Indexes!I489</f>
+        <v>3.5800000000000068E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>41547</v>
       </c>
@@ -19800,8 +20837,16 @@
         <f>Indexes!I491/12</f>
         <v>3.7491666666666663E-3</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490">
+        <f>Indexes!H491-Indexes!H490</f>
+        <v>-3.0000000000000512E-4</v>
+      </c>
+      <c r="K490">
+        <f>Indexes!I491-Indexes!I490</f>
+        <v>4.099999999999937E-4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>41578</v>
       </c>
@@ -19831,8 +20876,16 @@
         <f>Indexes!I492/12</f>
         <v>3.5150000000000003E-3</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491">
+        <f>Indexes!H492-Indexes!H491</f>
+        <v>-9.9999999999995925E-5</v>
+      </c>
+      <c r="K491">
+        <f>Indexes!I492-Indexes!I491</f>
+        <v>-2.8099999999999931E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>41608</v>
       </c>
@@ -19862,8 +20915,16 @@
         <f>Indexes!I493/12</f>
         <v>3.7624999999999998E-3</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492">
+        <f>Indexes!H493-Indexes!H492</f>
+        <v>-1.0000000000000286E-4</v>
+      </c>
+      <c r="K492">
+        <f>Indexes!I493-Indexes!I492</f>
+        <v>2.9699999999999935E-3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>41639</v>
       </c>
@@ -19893,8 +20954,16 @@
         <f>Indexes!I494/12</f>
         <v>3.63E-3</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493">
+        <f>Indexes!H494-Indexes!H493</f>
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="K493">
+        <f>Indexes!I494-Indexes!I493</f>
+        <v>-1.5899999999999942E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>41670</v>
       </c>
@@ -19924,8 +20993,16 @@
         <f>Indexes!I495/12</f>
         <v>3.9633333333333335E-3</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494">
+        <f>Indexes!H495-Indexes!H494</f>
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <f>Indexes!I495-Indexes!I494</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>41698</v>
       </c>
@@ -19955,8 +21032,16 @@
         <f>Indexes!I496/12</f>
         <v>3.6508333333333336E-3</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495">
+        <f>Indexes!H496-Indexes!H495</f>
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <f>Indexes!I496-Indexes!I495</f>
+        <v>-3.7500000000000033E-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>41729</v>
       </c>
@@ -19986,8 +21071,16 @@
         <f>Indexes!I497/12</f>
         <v>3.5283333333333334E-3</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496">
+        <f>Indexes!H497-Indexes!H496</f>
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <f>Indexes!I497-Indexes!I496</f>
+        <v>-1.4699999999999991E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>41759</v>
       </c>
@@ -20017,8 +21110,16 @@
         <f>Indexes!I498/12</f>
         <v>3.3708333333333333E-3</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497">
+        <f>Indexes!H498-Indexes!H497</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K497">
+        <f>Indexes!I498-Indexes!I497</f>
+        <v>-1.8900000000000028E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>41790</v>
       </c>
@@ -20048,8 +21149,16 @@
         <f>Indexes!I499/12</f>
         <v>3.0849999999999996E-3</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498">
+        <f>Indexes!H499-Indexes!H498</f>
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <f>Indexes!I499-Indexes!I498</f>
+        <v>-3.4300000000000025E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>41820</v>
       </c>
@@ -20079,8 +21188,16 @@
         <f>Indexes!I500/12</f>
         <v>2.8850000000000004E-3</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499">
+        <f>Indexes!H500-Indexes!H499</f>
+        <v>-4.0000000000000105E-4</v>
+      </c>
+      <c r="K499">
+        <f>Indexes!I500-Indexes!I499</f>
+        <v>-2.3999999999999924E-3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>41851</v>
       </c>
@@ -20110,8 +21227,16 @@
         <f>Indexes!I501/12</f>
         <v>2.8649999999999999E-3</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500">
+        <f>Indexes!H501-Indexes!H500</f>
+        <v>-1.0000000000000286E-4</v>
+      </c>
+      <c r="K500">
+        <f>Indexes!I501-Indexes!I500</f>
+        <v>-2.400000000000041E-4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>41882</v>
       </c>
@@ -20141,8 +21266,16 @@
         <f>Indexes!I502/12</f>
         <v>2.6116666666666667E-3</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501">
+        <f>Indexes!H502-Indexes!H501</f>
+        <v>-7.9999999999999863E-4</v>
+      </c>
+      <c r="K501">
+        <f>Indexes!I502-Indexes!I501</f>
+        <v>-3.040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>41912</v>
       </c>
@@ -20172,8 +21305,16 @@
         <f>Indexes!I503/12</f>
         <v>2.558333333333333E-3</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502">
+        <f>Indexes!H503-Indexes!H502</f>
+        <v>-3.1000000000000021E-3</v>
+      </c>
+      <c r="K502">
+        <f>Indexes!I503-Indexes!I502</f>
+        <v>-6.4000000000000168E-4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>41943</v>
       </c>
@@ -20203,8 +21344,16 @@
         <f>Indexes!I504/12</f>
         <v>2.1349999999999997E-3</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503">
+        <f>Indexes!H504-Indexes!H503</f>
+        <v>-3.199999999999998E-3</v>
+      </c>
+      <c r="K503">
+        <f>Indexes!I504-Indexes!I503</f>
+        <v>-5.0800000000000012E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>41973</v>
       </c>
@@ -20234,8 +21383,16 @@
         <f>Indexes!I505/12</f>
         <v>1.9974999999999997E-3</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504">
+        <f>Indexes!H505-Indexes!H504</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="K504">
+        <f>Indexes!I505-Indexes!I504</f>
+        <v>-1.6499999999999987E-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>42004</v>
       </c>
@@ -20265,8 +21422,16 @@
         <f>Indexes!I506/12</f>
         <v>2.1091666666666667E-3</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505">
+        <f>Indexes!H506-Indexes!H505</f>
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <f>Indexes!I506-Indexes!I505</f>
+        <v>1.3400000000000044E-3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>42035</v>
       </c>
@@ -20296,8 +21461,16 @@
         <f>Indexes!I507/12</f>
         <v>1.6583333333333335E-3</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506">
+        <f>Indexes!H507-Indexes!H506</f>
+        <v>-5.9999999999999984E-4</v>
+      </c>
+      <c r="K506">
+        <f>Indexes!I507-Indexes!I506</f>
+        <v>-5.4100000000000016E-3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>42063</v>
       </c>
@@ -20327,8 +21500,16 @@
         <f>Indexes!I508/12</f>
         <v>1.8133333333333335E-3</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507">
+        <f>Indexes!H508-Indexes!H507</f>
+        <v>-1.8999999999999989E-3</v>
+      </c>
+      <c r="K507">
+        <f>Indexes!I508-Indexes!I507</f>
+        <v>1.8600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>42094</v>
       </c>
@@ -20358,8 +21539,16 @@
         <f>Indexes!I509/12</f>
         <v>1.9425E-3</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J508">
+        <f>Indexes!H509-Indexes!H508</f>
+        <v>-1.6000000000000007E-3</v>
+      </c>
+      <c r="K508">
+        <f>Indexes!I509-Indexes!I508</f>
+        <v>1.5499999999999993E-3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>42124</v>
       </c>
@@ -20389,8 +21578,16 @@
         <f>Indexes!I510/12</f>
         <v>2.1808333333333332E-3</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J509">
+        <f>Indexes!H510-Indexes!H509</f>
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <f>Indexes!I510-Indexes!I509</f>
+        <v>2.859999999999998E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>42155</v>
       </c>
@@ -20420,8 +21617,16 @@
         <f>Indexes!I511/12</f>
         <v>2.4599999999999999E-3</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J510">
+        <f>Indexes!H511-Indexes!H510</f>
+        <v>2.9999999999999818E-4</v>
+      </c>
+      <c r="K510">
+        <f>Indexes!I511-Indexes!I510</f>
+        <v>3.3500000000000023E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>42185</v>
       </c>
@@ -20451,8 +21656,16 @@
         <f>Indexes!I512/12</f>
         <v>2.7808333333333335E-3</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J511">
+        <f>Indexes!H512-Indexes!H511</f>
+        <v>4.0000000000000105E-4</v>
+      </c>
+      <c r="K511">
+        <f>Indexes!I512-Indexes!I511</f>
+        <v>3.8500000000000027E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>42216</v>
       </c>
@@ -20482,8 +21695,16 @@
         <f>Indexes!I513/12</f>
         <v>2.4633333333333334E-3</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J512">
+        <f>Indexes!H513-Indexes!H512</f>
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <f>Indexes!I513-Indexes!I512</f>
+        <v>-3.8100000000000044E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>42247</v>
       </c>
@@ -20513,8 +21734,16 @@
         <f>Indexes!I514/12</f>
         <v>2.4674999999999996E-3</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J513">
+        <f>Indexes!H514-Indexes!H513</f>
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <f>Indexes!I514-Indexes!I513</f>
+        <v>4.9999999999997963E-5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>42277</v>
       </c>
@@ -20544,8 +21773,16 @@
         <f>Indexes!I515/12</f>
         <v>2.3766666666666667E-3</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J514">
+        <f>Indexes!H515-Indexes!H514</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K514">
+        <f>Indexes!I515-Indexes!I514</f>
+        <v>-1.0899999999999972E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>42308</v>
       </c>
@@ -20575,8 +21812,16 @@
         <f>Indexes!I516/12</f>
         <v>2.2333333333333333E-3</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J515">
+        <f>Indexes!H516-Indexes!H515</f>
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <f>Indexes!I516-Indexes!I515</f>
+        <v>-1.7199999999999993E-3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>42338</v>
       </c>
@@ -20606,8 +21851,16 @@
         <f>Indexes!I517/12</f>
         <v>2.2324999999999997E-3</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J516">
+        <f>Indexes!H517-Indexes!H516</f>
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <f>Indexes!I517-Indexes!I516</f>
+        <v>-1.0000000000003062E-5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>42369</v>
       </c>
@@ -20637,8 +21890,16 @@
         <f>Indexes!I518/12</f>
         <v>2.4491666666666668E-3</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J517">
+        <f>Indexes!H518-Indexes!H517</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="K517">
+        <f>Indexes!I518-Indexes!I517</f>
+        <v>2.6000000000000016E-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>42400</v>
       </c>
@@ -20668,8 +21929,16 @@
         <f>Indexes!I519/12</f>
         <v>2.6275000000000001E-3</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J518">
+        <f>Indexes!H519-Indexes!H518</f>
+        <v>-1.9999999999999879E-4</v>
+      </c>
+      <c r="K518">
+        <f>Indexes!I519-Indexes!I518</f>
+        <v>2.140000000000003E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>42429</v>
       </c>
@@ -20699,8 +21968,16 @@
         <f>Indexes!I520/12</f>
         <v>2.4550000000000002E-3</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J519">
+        <f>Indexes!H520-Indexes!H519</f>
+        <v>-2.0000000000000226E-4</v>
+      </c>
+      <c r="K519">
+        <f>Indexes!I520-Indexes!I519</f>
+        <v>-2.0700000000000024E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>42460</v>
       </c>
@@ -20730,8 +22007,16 @@
         <f>Indexes!I521/12</f>
         <v>2.3566666666666666E-3</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J520">
+        <f>Indexes!H521-Indexes!H520</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="K520">
+        <f>Indexes!I521-Indexes!I520</f>
+        <v>-1.1800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>42490</v>
       </c>
@@ -20761,8 +22046,16 @@
         <f>Indexes!I522/12</f>
         <v>2.558333333333333E-3</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J521">
+        <f>Indexes!H522-Indexes!H521</f>
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <f>Indexes!I522-Indexes!I521</f>
+        <v>2.4199999999999985E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>42521</v>
       </c>
@@ -20792,8 +22085,16 @@
         <f>Indexes!I523/12</f>
         <v>2.5941666666666669E-3</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J522">
+        <f>Indexes!H523-Indexes!H522</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K522">
+        <f>Indexes!I523-Indexes!I522</f>
+        <v>4.300000000000033E-4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>42551</v>
       </c>
@@ -20823,8 +22124,16 @@
         <f>Indexes!I524/12</f>
         <v>2.4508333333333331E-3</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J523">
+        <f>Indexes!H524-Indexes!H523</f>
+        <v>3.0000000000000165E-4</v>
+      </c>
+      <c r="K523">
+        <f>Indexes!I524-Indexes!I523</f>
+        <v>-1.7200000000000028E-3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>42582</v>
       </c>
@@ -20854,8 +22163,16 @@
         <f>Indexes!I525/12</f>
         <v>2.4350000000000001E-3</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J524">
+        <f>Indexes!H525-Indexes!H524</f>
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <f>Indexes!I525-Indexes!I524</f>
+        <v>-1.8999999999999573E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>42613</v>
       </c>
@@ -20885,8 +22202,16 @@
         <f>Indexes!I526/12</f>
         <v>2.3199999999999996E-3</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J525">
+        <f>Indexes!H526-Indexes!H525</f>
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <f>Indexes!I526-Indexes!I525</f>
+        <v>-1.3800000000000062E-3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>42643</v>
       </c>
@@ -20916,8 +22241,16 @@
         <f>Indexes!I527/12</f>
         <v>2.4325000000000002E-3</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J526">
+        <f>Indexes!H527-Indexes!H526</f>
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <f>Indexes!I527-Indexes!I526</f>
+        <v>1.350000000000004E-3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>42674</v>
       </c>
@@ -20947,8 +22280,16 @@
         <f>Indexes!I528/12</f>
         <v>2.5958333333333332E-3</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J527">
+        <f>Indexes!H528-Indexes!H527</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K527">
+        <f>Indexes!I528-Indexes!I527</f>
+        <v>1.9599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>42704</v>
       </c>
@@ -20978,8 +22319,16 @@
         <f>Indexes!I529/12</f>
         <v>3.0383333333333334E-3</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J528">
+        <f>Indexes!H529-Indexes!H528</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K528">
+        <f>Indexes!I529-Indexes!I528</f>
+        <v>5.3099999999999987E-3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>42735</v>
       </c>
@@ -21009,8 +22358,16 @@
         <f>Indexes!I530/12</f>
         <v>3.0258333333333331E-3</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J529">
+        <f>Indexes!H530-Indexes!H529</f>
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <f>Indexes!I530-Indexes!I529</f>
+        <v>-1.500000000000043E-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>42766</v>
       </c>
@@ -21040,8 +22397,16 @@
         <f>Indexes!I531/12</f>
         <v>3.2266666666666663E-3</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J530">
+        <f>Indexes!H531-Indexes!H530</f>
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <f>Indexes!I531-Indexes!I530</f>
+        <v>2.4100000000000024E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>42794</v>
       </c>
@@ -21071,8 +22436,16 @@
         <f>Indexes!I532/12</f>
         <v>3.1841666666666667E-3</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J531">
+        <f>Indexes!H532-Indexes!H531</f>
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <f>Indexes!I532-Indexes!I531</f>
+        <v>-5.0999999999999657E-4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>42825</v>
       </c>
@@ -21102,8 +22475,16 @@
         <f>Indexes!I533/12</f>
         <v>2.9225000000000002E-3</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J532">
+        <f>Indexes!H533-Indexes!H532</f>
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <f>Indexes!I533-Indexes!I532</f>
+        <v>-3.139999999999997E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>42855</v>
       </c>
@@ -21133,8 +22514,16 @@
         <f>Indexes!I534/12</f>
         <v>2.8683333333333334E-3</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J533">
+        <f>Indexes!H534-Indexes!H533</f>
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <f>Indexes!I534-Indexes!I533</f>
+        <v>-6.5000000000000474E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>42886</v>
       </c>
@@ -21164,8 +22553,16 @@
         <f>Indexes!I535/12</f>
         <v>2.7050000000000004E-3</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J534">
+        <f>Indexes!H535-Indexes!H534</f>
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <f>Indexes!I535-Indexes!I534</f>
+        <v>-1.9599999999999965E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>42916</v>
       </c>
@@ -21195,8 +22592,16 @@
         <f>Indexes!I536/12</f>
         <v>2.7558333333333337E-3</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J535">
+        <f>Indexes!H536-Indexes!H535</f>
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <f>Indexes!I536-Indexes!I535</f>
+        <v>6.0999999999999943E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>42947</v>
       </c>
@@ -21226,8 +22631,16 @@
         <f>Indexes!I537/12</f>
         <v>2.8216666666666668E-3</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J536">
+        <f>Indexes!H537-Indexes!H536</f>
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <f>Indexes!I537-Indexes!I536</f>
+        <v>7.8999999999999904E-4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>42978</v>
       </c>
@@ -21257,8 +22670,16 @@
         <f>Indexes!I538/12</f>
         <v>2.7466666666666664E-3</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J537">
+        <f>Indexes!H538-Indexes!H537</f>
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <f>Indexes!I538-Indexes!I537</f>
+        <v>-9.0000000000000496E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>43008</v>
       </c>
@@ -21288,8 +22709,16 @@
         <f>Indexes!I539/12</f>
         <v>2.8175000000000001E-3</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J538">
+        <f>Indexes!H539-Indexes!H538</f>
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <f>Indexes!I539-Indexes!I538</f>
+        <v>8.5000000000000353E-4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>43039</v>
       </c>
@@ -21319,8 +22748,16 @@
         <f>Indexes!I540/12</f>
         <v>2.869166666666667E-3</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J539">
+        <f>Indexes!H540-Indexes!H539</f>
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <f>Indexes!I540-Indexes!I539</f>
+        <v>6.2000000000000249E-4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>43069</v>
       </c>
@@ -21350,8 +22787,16 @@
         <f>Indexes!I541/12</f>
         <v>2.7858333333333333E-3</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J540">
+        <f>Indexes!H541-Indexes!H540</f>
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <f>Indexes!I541-Indexes!I540</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>43100</v>
       </c>
@@ -21381,8 +22826,16 @@
         <f>Indexes!I542/12</f>
         <v>2.7516666666666666E-3</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J541">
+        <f>Indexes!H542-Indexes!H541</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="K541">
+        <f>Indexes!I542-Indexes!I541</f>
+        <v>-4.1000000000000064E-4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>43131</v>
       </c>
@@ -21412,8 +22865,16 @@
         <f>Indexes!I543/12</f>
         <v>2.8866666666666663E-3</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J542">
+        <f>Indexes!H543-Indexes!H542</f>
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <f>Indexes!I543-Indexes!I542</f>
+        <v>1.6199999999999964E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>43159</v>
       </c>
@@ -21443,8 +22904,16 @@
         <f>Indexes!I544/12</f>
         <v>2.8133333333333331E-3</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J543">
+        <f>Indexes!H544-Indexes!H543</f>
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <f>Indexes!I544-Indexes!I543</f>
+        <v>-8.7999999999999884E-4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>43190</v>
       </c>
@@ -21474,8 +22943,16 @@
         <f>Indexes!I545/12</f>
         <v>2.6449999999999998E-3</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J544">
+        <f>Indexes!H545-Indexes!H544</f>
+        <v>-1.9999999999999879E-4</v>
+      </c>
+      <c r="K544">
+        <f>Indexes!I545-Indexes!I544</f>
+        <v>-2.020000000000001E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>43220</v>
       </c>
@@ -21505,8 +22982,16 @@
         <f>Indexes!I546/12</f>
         <v>2.5725000000000001E-3</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J545">
+        <f>Indexes!H546-Indexes!H545</f>
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <f>Indexes!I546-Indexes!I545</f>
+        <v>-8.6999999999999578E-4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>43251</v>
       </c>
@@ -21536,8 +23021,16 @@
         <f>Indexes!I547/12</f>
         <v>2.725E-3</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J546">
+        <f>Indexes!H547-Indexes!H546</f>
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <f>Indexes!I547-Indexes!I546</f>
+        <v>1.8299999999999983E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>43281</v>
       </c>
@@ -21567,8 +23060,16 @@
         <f>Indexes!I548/12</f>
         <v>2.6908333333333333E-3</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J547">
+        <f>Indexes!H548-Indexes!H547</f>
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <f>Indexes!I548-Indexes!I547</f>
+        <v>-4.1000000000000064E-4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>43312</v>
       </c>
@@ -21598,8 +23099,16 @@
         <f>Indexes!I549/12</f>
         <v>2.65E-3</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J548">
+        <f>Indexes!H549-Indexes!H548</f>
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <f>Indexes!I549-Indexes!I548</f>
+        <v>-4.8999999999999738E-4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>43343</v>
       </c>
@@ -21629,8 +23138,16 @@
         <f>Indexes!I550/12</f>
         <v>2.6725E-3</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J549">
+        <f>Indexes!H550-Indexes!H549</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K549">
+        <f>Indexes!I550-Indexes!I549</f>
+        <v>2.6999999999999941E-4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>43373</v>
       </c>
@@ -21660,8 +23177,16 @@
         <f>Indexes!I551/12</f>
         <v>2.7208333333333334E-3</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J550">
+        <f>Indexes!H551-Indexes!H550</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="K550">
+        <f>Indexes!I551-Indexes!I550</f>
+        <v>5.7999999999999718E-4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>43404</v>
       </c>
@@ -21691,8 +23216,16 @@
         <f>Indexes!I552/12</f>
         <v>2.6875000000000002E-3</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J551">
+        <f>Indexes!H552-Indexes!H551</f>
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <f>Indexes!I552-Indexes!I551</f>
+        <v>-3.9999999999999758E-4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>43434</v>
       </c>
@@ -21722,8 +23255,16 @@
         <f>Indexes!I553/12</f>
         <v>2.545E-3</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J552">
+        <f>Indexes!H553-Indexes!H552</f>
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <f>Indexes!I553-Indexes!I552</f>
+        <v>-1.7100000000000032E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>43465</v>
       </c>
@@ -21753,8 +23294,16 @@
         <f>Indexes!I554/12</f>
         <v>2.3658333333333331E-3</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J553">
+        <f>Indexes!H554-Indexes!H553</f>
+        <v>0</v>
+      </c>
+      <c r="K553">
+        <f>Indexes!I554-Indexes!I553</f>
+        <v>-2.1499999999999991E-3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>43496</v>
       </c>
@@ -21784,8 +23333,16 @@
         <f>Indexes!I555/12</f>
         <v>2.2783333333333332E-3</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J554">
+        <f>Indexes!H555-Indexes!H554</f>
+        <v>0</v>
+      </c>
+      <c r="K554">
+        <f>Indexes!I555-Indexes!I554</f>
+        <v>-1.0499999999999989E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>43524</v>
       </c>
@@ -21815,8 +23372,16 @@
         <f>Indexes!I556/12</f>
         <v>2.4599999999999999E-3</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J555">
+        <f>Indexes!H556-Indexes!H555</f>
+        <v>0</v>
+      </c>
+      <c r="K555">
+        <f>Indexes!I556-Indexes!I555</f>
+        <v>2.1800000000000014E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>43555</v>
       </c>
@@ -21846,8 +23411,16 @@
         <f>Indexes!I557/12</f>
         <v>2.3691666666666666E-3</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J556">
+        <f>Indexes!H557-Indexes!H556</f>
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <f>Indexes!I557-Indexes!I556</f>
+        <v>-1.0900000000000007E-3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>43585</v>
       </c>
@@ -21877,8 +23450,16 @@
         <f>Indexes!I558/12</f>
         <v>2.5141666666666667E-3</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J557">
+        <f>Indexes!H558-Indexes!H557</f>
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <f>Indexes!I558-Indexes!I557</f>
+        <v>1.7399999999999985E-3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>43616</v>
       </c>
@@ -21908,8 +23489,16 @@
         <f>Indexes!I559/12</f>
         <v>2.2216666666666665E-3</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J558">
+        <f>Indexes!H559-Indexes!H558</f>
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <f>Indexes!I559-Indexes!I558</f>
+        <v>-3.5099999999999992E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>43646</v>
       </c>
@@ -21939,8 +23528,16 @@
         <f>Indexes!I560/12</f>
         <v>2.0191666666666669E-3</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J559">
+        <f>Indexes!H560-Indexes!H559</f>
+        <v>0</v>
+      </c>
+      <c r="K559">
+        <f>Indexes!I560-Indexes!I559</f>
+        <v>-2.4299999999999981E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>43677</v>
       </c>
@@ -21970,8 +23567,16 @@
         <f>Indexes!I561/12</f>
         <v>1.8316666666666666E-3</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J560">
+        <f>Indexes!H561-Indexes!H560</f>
+        <v>0</v>
+      </c>
+      <c r="K560">
+        <f>Indexes!I561-Indexes!I560</f>
+        <v>-2.250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>43708</v>
       </c>
@@ -22001,8 +23606,16 @@
         <f>Indexes!I562/12</f>
         <v>1.5358333333333333E-3</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J561">
+        <f>Indexes!H562-Indexes!H561</f>
+        <v>0</v>
+      </c>
+      <c r="K561">
+        <f>Indexes!I562-Indexes!I561</f>
+        <v>-3.5500000000000011E-3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>43738</v>
       </c>
@@ -22032,8 +23645,16 @@
         <f>Indexes!I563/12</f>
         <v>1.6699999999999998E-3</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J562">
+        <f>Indexes!H563-Indexes!H562</f>
+        <v>0</v>
+      </c>
+      <c r="K562">
+        <f>Indexes!I563-Indexes!I562</f>
+        <v>1.6100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>43769</v>
       </c>
@@ -22063,8 +23684,16 @@
         <f>Indexes!I564/12</f>
         <v>1.6300000000000002E-3</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J563">
+        <f>Indexes!H564-Indexes!H563</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="K563">
+        <f>Indexes!I564-Indexes!I563</f>
+        <v>-4.7999999999999779E-4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>43799</v>
       </c>
@@ -22094,8 +23723,16 @@
         <f>Indexes!I565/12</f>
         <v>1.6674999999999999E-3</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J564">
+        <f>Indexes!H565-Indexes!H564</f>
+        <v>0</v>
+      </c>
+      <c r="K564">
+        <f>Indexes!I565-Indexes!I564</f>
+        <v>4.4999999999999901E-4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>43830</v>
       </c>
@@ -22125,8 +23762,16 @@
         <f>Indexes!I566/12</f>
         <v>1.7558333333333334E-3</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J565">
+        <f>Indexes!H566-Indexes!H565</f>
+        <v>0</v>
+      </c>
+      <c r="K565">
+        <f>Indexes!I566-Indexes!I565</f>
+        <v>1.0600000000000019E-3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>43861</v>
       </c>
@@ -22156,8 +23801,16 @@
         <f>Indexes!I567/12</f>
         <v>1.7766666666666668E-3</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J566">
+        <f>Indexes!H567-Indexes!H566</f>
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <f>Indexes!I567-Indexes!I566</f>
+        <v>2.5000000000000022E-4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>43890</v>
       </c>
@@ -22187,8 +23840,16 @@
         <f>Indexes!I568/12</f>
         <v>1.4866666666666667E-3</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J567">
+        <f>Indexes!H568-Indexes!H567</f>
+        <v>0</v>
+      </c>
+      <c r="K567">
+        <f>Indexes!I568-Indexes!I567</f>
+        <v>-3.4800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>43921</v>
       </c>
@@ -22218,8 +23879,16 @@
         <f>Indexes!I569/12</f>
         <v>1.3816666666666665E-3</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J568">
+        <f>Indexes!H569-Indexes!H568</f>
+        <v>-5.400000000000002E-3</v>
+      </c>
+      <c r="K568">
+        <f>Indexes!I569-Indexes!I568</f>
+        <v>-1.2600000000000042E-3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>43951</v>
       </c>
@@ -22249,8 +23918,16 @@
         <f>Indexes!I570/12</f>
         <v>1.2175E-3</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J569">
+        <f>Indexes!H570-Indexes!H569</f>
+        <v>-4.8999999999999981E-3</v>
+      </c>
+      <c r="K569">
+        <f>Indexes!I570-Indexes!I569</f>
+        <v>-1.9699999999999961E-3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>43982</v>
       </c>
@@ -22280,8 +23957,16 @@
         <f>Indexes!I571/12</f>
         <v>9.6916666666666668E-4</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J570">
+        <f>Indexes!H571-Indexes!H570</f>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K570">
+        <f>Indexes!I571-Indexes!I570</f>
+        <v>-2.9800000000000017E-3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44012</v>
       </c>
@@ -22311,8 +23996,16 @@
         <f>Indexes!I572/12</f>
         <v>1.1358333333333333E-3</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J571">
+        <f>Indexes!H572-Indexes!H571</f>
+        <v>-2.0000000000000052E-4</v>
+      </c>
+      <c r="K571">
+        <f>Indexes!I572-Indexes!I571</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44043</v>
       </c>
@@ -22342,8 +24035,16 @@
         <f>Indexes!I573/12</f>
         <v>1.0533333333333334E-3</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J572">
+        <f>Indexes!H573-Indexes!H572</f>
+        <v>-2.9999999999999992E-4</v>
+      </c>
+      <c r="K572">
+        <f>Indexes!I573-Indexes!I572</f>
+        <v>-9.8999999999999956E-4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44074</v>
       </c>
@@ -22373,8 +24074,16 @@
         <f>Indexes!I574/12</f>
         <v>1.1583333333333333E-3</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J573">
+        <f>Indexes!H574-Indexes!H573</f>
+        <v>0</v>
+      </c>
+      <c r="K573">
+        <f>Indexes!I574-Indexes!I573</f>
+        <v>1.259999999999999E-3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44104</v>
       </c>
@@ -22404,8 +24113,16 @@
         <f>Indexes!I575/12</f>
         <v>1.0858333333333334E-3</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J574">
+        <f>Indexes!H575-Indexes!H574</f>
+        <v>-9.9999999999999829E-5</v>
+      </c>
+      <c r="K574">
+        <f>Indexes!I575-Indexes!I574</f>
+        <v>-8.6999999999999925E-4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44135</v>
       </c>
@@ -22435,8 +24152,16 @@
         <f>Indexes!I576/12</f>
         <v>9.7999999999999997E-4</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J575">
+        <f>Indexes!H576-Indexes!H575</f>
+        <v>0</v>
+      </c>
+      <c r="K575">
+        <f>Indexes!I576-Indexes!I575</f>
+        <v>-1.2700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44165</v>
       </c>
@@ -22466,8 +24191,16 @@
         <f>Indexes!I577/12</f>
         <v>1.0225000000000002E-3</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J576">
+        <f>Indexes!H577-Indexes!H576</f>
+        <v>0</v>
+      </c>
+      <c r="K576">
+        <f>Indexes!I577-Indexes!I576</f>
+        <v>5.1000000000000177E-4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44196</v>
       </c>
@@ -22497,8 +24230,16 @@
         <f>Indexes!I578/12</f>
         <v>1.0233333333333333E-3</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J577">
+        <f>Indexes!H578-Indexes!H577</f>
+        <v>-1.0000000000000026E-4</v>
+      </c>
+      <c r="K577">
+        <f>Indexes!I578-Indexes!I577</f>
+        <v>9.9999999999978578E-6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44227</v>
       </c>
@@ -22528,8 +24269,16 @@
         <f>Indexes!I579/12</f>
         <v>9.5750000000000002E-4</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J578">
+        <f>Indexes!H579-Indexes!H578</f>
+        <v>0</v>
+      </c>
+      <c r="K578">
+        <f>Indexes!I579-Indexes!I578</f>
+        <v>-7.8999999999999904E-4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44255</v>
       </c>
@@ -22559,8 +24308,16 @@
         <f>Indexes!I580/12</f>
         <v>1.3191666666666666E-3</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J579">
+        <f>Indexes!H580-Indexes!H579</f>
+        <v>0</v>
+      </c>
+      <c r="K579">
+        <f>Indexes!I580-Indexes!I579</f>
+        <v>4.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44286</v>
       </c>
@@ -22590,8 +24347,16 @@
         <f>Indexes!I581/12</f>
         <v>1.2900000000000001E-3</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J580">
+        <f>Indexes!H581-Indexes!H580</f>
+        <v>0</v>
+      </c>
+      <c r="K580">
+        <f>Indexes!I581-Indexes!I580</f>
+        <v>-3.4999999999999962E-4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44316</v>
       </c>
@@ -22621,8 +24386,16 @@
         <f>Indexes!I582/12</f>
         <v>1.4166666666666668E-3</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J581">
+        <f>Indexes!H582-Indexes!H581</f>
+        <v>0</v>
+      </c>
+      <c r="K581">
+        <f>Indexes!I582-Indexes!I581</f>
+        <v>1.5200000000000005E-3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44347</v>
       </c>
@@ -22652,8 +24425,16 @@
         <f>Indexes!I583/12</f>
         <v>1.5424999999999998E-3</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J582">
+        <f>Indexes!H583-Indexes!H582</f>
+        <v>0</v>
+      </c>
+      <c r="K582">
+        <f>Indexes!I583-Indexes!I582</f>
+        <v>1.5099999999999975E-3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44377</v>
       </c>
@@ -22683,8 +24464,16 @@
         <f>Indexes!I584/12</f>
         <v>1.3591666666666667E-3</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J583">
+        <f>Indexes!H584-Indexes!H583</f>
+        <v>0</v>
+      </c>
+      <c r="K583">
+        <f>Indexes!I584-Indexes!I583</f>
+        <v>-2.1999999999999971E-3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44408</v>
       </c>
@@ -22714,8 +24503,16 @@
         <f>Indexes!I585/12</f>
         <v>1.4183333333333333E-3</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J584">
+        <f>Indexes!H585-Indexes!H584</f>
+        <v>0</v>
+      </c>
+      <c r="K584">
+        <f>Indexes!I585-Indexes!I584</f>
+        <v>7.0999999999999883E-4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44439</v>
       </c>
@@ -22745,8 +24542,16 @@
         <f>Indexes!I586/12</f>
         <v>1.5000000000000002E-3</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J585">
+        <f>Indexes!H586-Indexes!H585</f>
+        <v>2.0000000000000009E-4</v>
+      </c>
+      <c r="K585">
+        <f>Indexes!I586-Indexes!I585</f>
+        <v>9.800000000000017E-4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44469</v>
       </c>
@@ -22776,8 +24581,16 @@
         <f>Indexes!I587/12</f>
         <v>1.8058333333333331E-3</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J586">
+        <f>Indexes!H587-Indexes!H586</f>
+        <v>0</v>
+      </c>
+      <c r="K586">
+        <f>Indexes!I587-Indexes!I586</f>
+        <v>3.6699999999999962E-3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44500</v>
       </c>
@@ -22807,8 +24620,16 @@
         <f>Indexes!I588/12</f>
         <v>2.3500000000000001E-3</v>
       </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J587">
+        <f>Indexes!H588-Indexes!H587</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="K587">
+        <f>Indexes!I588-Indexes!I587</f>
+        <v>6.5300000000000011E-3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44530</v>
       </c>
@@ -22838,8 +24659,16 @@
         <f>Indexes!I589/12</f>
         <v>2.5300000000000001E-3</v>
       </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J588">
+        <f>Indexes!H589-Indexes!H588</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="K588">
+        <f>Indexes!I589-Indexes!I588</f>
+        <v>2.1600000000000022E-3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44561</v>
       </c>
@@ -22869,8 +24698,16 @@
         <f>Indexes!I590/12</f>
         <v>3.0316666666666665E-3</v>
       </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J589">
+        <f>Indexes!H590-Indexes!H589</f>
+        <v>4.7999999999999987E-3</v>
+      </c>
+      <c r="K589">
+        <f>Indexes!I590-Indexes!I589</f>
+        <v>6.0199999999999941E-3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44592</v>
       </c>
@@ -22900,8 +24737,16 @@
         <f>Indexes!I591/12</f>
         <v>3.3966666666666663E-3</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J590">
+        <f>Indexes!H591-Indexes!H590</f>
+        <v>4.8000000000000022E-3</v>
+      </c>
+      <c r="K590">
+        <f>Indexes!I591-Indexes!I590</f>
+        <v>4.3800000000000019E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44620</v>
       </c>
@@ -22931,8 +24776,16 @@
         <f>Indexes!I592/12</f>
         <v>3.4099999999999998E-3</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J591">
+        <f>Indexes!H592-Indexes!H591</f>
+        <v>6.2999999999999966E-3</v>
+      </c>
+      <c r="K591">
+        <f>Indexes!I592-Indexes!I591</f>
+        <v>1.6000000000000042E-4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44651</v>
       </c>
@@ -22962,8 +24815,16 @@
         <f>Indexes!I593/12</f>
         <v>4.326666666666667E-3</v>
       </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J592">
+        <f>Indexes!H593-Indexes!H592</f>
+        <v>1.1199999999999995E-2</v>
+      </c>
+      <c r="K592">
+        <f>Indexes!I593-Indexes!I592</f>
+        <v>1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44681</v>
       </c>
@@ -22993,8 +24854,16 @@
         <f>Indexes!I594/12</f>
         <v>5.2866666666666661E-3</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J593">
+        <f>Indexes!H594-Indexes!H593</f>
+        <v>1.2800000000000006E-2</v>
+      </c>
+      <c r="K593">
+        <f>Indexes!I594-Indexes!I593</f>
+        <v>1.1519999999999996E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44712</v>
       </c>
@@ -23024,8 +24893,16 @@
         <f>Indexes!I595/12</f>
         <v>5.4449999999999993E-3</v>
       </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J594">
+        <f>Indexes!H595-Indexes!H594</f>
+        <v>5.400000000000002E-3</v>
+      </c>
+      <c r="K594">
+        <f>Indexes!I595-Indexes!I594</f>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44742</v>
       </c>
@@ -23055,8 +24932,16 @@
         <f>Indexes!I596/12</f>
         <v>5.7250000000000001E-3</v>
       </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J595">
+        <f>Indexes!H596-Indexes!H595</f>
+        <v>4.599999999999993E-3</v>
+      </c>
+      <c r="K595">
+        <f>Indexes!I596-Indexes!I595</f>
+        <v>3.3600000000000019E-3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44773</v>
       </c>
@@ -23086,8 +24971,16 @@
         <f>Indexes!I597/12</f>
         <v>4.6183333333333328E-3</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J596">
+        <f>Indexes!H597-Indexes!H596</f>
+        <v>-3.9999999999999758E-4</v>
+      </c>
+      <c r="K596">
+        <f>Indexes!I597-Indexes!I596</f>
+        <v>-1.328E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44804</v>
       </c>
@@ -23117,8 +25010,16 @@
         <f>Indexes!I598/12</f>
         <v>5.1208333333333331E-3</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J597">
+        <f>Indexes!H598-Indexes!H597</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="K597">
+        <f>Indexes!I598-Indexes!I597</f>
+        <v>6.0300000000000006E-3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44834</v>
       </c>
@@ -23148,8 +25049,16 @@
         <f>Indexes!I599/12</f>
         <v>5.9291666666666668E-3</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J598">
+        <f>Indexes!H599-Indexes!H598</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="K598">
+        <f>Indexes!I599-Indexes!I598</f>
+        <v>9.7000000000000072E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44865</v>
       </c>
@@ -23179,8 +25088,16 @@
         <f>Indexes!I600/12</f>
         <v>6.9474999999999997E-3</v>
       </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J599">
+        <f>Indexes!H600-Indexes!H599</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="K599">
+        <f>Indexes!I600-Indexes!I599</f>
+        <v>1.2219999999999995E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44895</v>
       </c>
@@ -23210,8 +25127,16 @@
         <f>Indexes!I601/12</f>
         <v>5.4841666666666676E-3</v>
       </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J600">
+        <f>Indexes!H601-Indexes!H600</f>
+        <v>-2.2999999999999965E-3</v>
+      </c>
+      <c r="K600">
+        <f>Indexes!I601-Indexes!I600</f>
+        <v>-1.7559999999999992E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44926</v>
       </c>
@@ -23241,8 +25166,16 @@
         <f>Indexes!I602/12</f>
         <v>5.7041666666666664E-3</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J601">
+        <f>Indexes!H602-Indexes!H601</f>
+        <v>-2.6000000000000051E-3</v>
+      </c>
+      <c r="K601">
+        <f>Indexes!I602-Indexes!I601</f>
+        <v>2.6399999999999896E-3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44957</v>
       </c>
@@ -23272,8 +25205,16 @@
         <f>Indexes!I603/12</f>
         <v>4.9974999999999993E-3</v>
       </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J602">
+        <f>Indexes!H603-Indexes!H602</f>
+        <v>-6.999999999999923E-4</v>
+      </c>
+      <c r="K602">
+        <f>Indexes!I603-Indexes!I602</f>
+        <v>-8.4800000000000014E-3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44985</v>
       </c>
@@ -23303,8 +25244,16 @@
         <f>Indexes!I604/12</f>
         <v>5.4416666666666667E-3</v>
       </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J603">
+        <f>Indexes!H604-Indexes!H603</f>
+        <v>-1.0000000000000286E-4</v>
+      </c>
+      <c r="K603">
+        <f>Indexes!I604-Indexes!I603</f>
+        <v>5.3300000000000014E-3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>45016</v>
       </c>
@@ -23334,8 +25283,16 @@
         <f>Indexes!I605/12</f>
         <v>5.035833333333334E-3</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J604">
+        <f>Indexes!H605-Indexes!H604</f>
+        <v>-5.0000000000000044E-4</v>
+      </c>
+      <c r="K604">
+        <f>Indexes!I605-Indexes!I604</f>
+        <v>-4.8699999999999924E-3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>45046</v>
       </c>
@@ -23365,8 +25322,16 @@
         <f>Indexes!I606/12</f>
         <v>4.9058333333333332E-3</v>
       </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J605">
+        <f>Indexes!H606-Indexes!H605</f>
+        <v>1.0000000000000286E-4</v>
+      </c>
+      <c r="K605">
+        <f>Indexes!I606-Indexes!I605</f>
+        <v>-1.5600000000000058E-3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>45077</v>
       </c>
@@ -23396,8 +25361,16 @@
         <f>Indexes!I607/12</f>
         <v>5.0183333333333338E-3</v>
       </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J606">
+        <f>Indexes!H607-Indexes!H606</f>
+        <v>0</v>
+      </c>
+      <c r="K606">
+        <f>Indexes!I607-Indexes!I606</f>
+        <v>1.350000000000004E-3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>45107</v>
       </c>
@@ -23427,8 +25400,16 @@
         <f>Indexes!I608/12</f>
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J607">
+        <f>Indexes!H608-Indexes!H607</f>
+        <v>0</v>
+      </c>
+      <c r="K607">
+        <f>Indexes!I608-Indexes!I607</f>
+        <v>-2.6200000000000043E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>45138</v>
       </c>
@@ -23458,8 +25439,16 @@
         <f>Indexes!I609/12</f>
         <v>4.5125E-3</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J608">
+        <f>Indexes!H609-Indexes!H608</f>
+        <v>-1.4000000000000123E-3</v>
+      </c>
+      <c r="K608">
+        <f>Indexes!I609-Indexes!I608</f>
+        <v>-3.4499999999999947E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>45169</v>
       </c>
@@ -23489,8 +25478,16 @@
         <f>Indexes!I610/12</f>
         <v>4.6416666666666663E-3</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J609">
+        <f>Indexes!H610-Indexes!H609</f>
+        <v>-1.0999999999999899E-3</v>
+      </c>
+      <c r="K609">
+        <f>Indexes!I610-Indexes!I609</f>
+        <v>1.5499999999999958E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>45199</v>
       </c>
@@ -23520,8 +25517,16 @@
         <f>Indexes!I611/12</f>
         <v>4.9158333333333337E-3</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J610">
+        <f>Indexes!H611-Indexes!H610</f>
+        <v>-8.8000000000000092E-3</v>
+      </c>
+      <c r="K610">
+        <f>Indexes!I611-Indexes!I610</f>
+        <v>3.2900000000000013E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>45230</v>
       </c>
@@ -23551,8 +25556,16 @@
         <f>Indexes!I612/12</f>
         <v>4.711666666666667E-3</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J611">
+        <f>Indexes!H612-Indexes!H611</f>
+        <v>-1.0999999999999899E-3</v>
+      </c>
+      <c r="K611">
+        <f>Indexes!I612-Indexes!I611</f>
+        <v>-2.4500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>45260</v>
       </c>
@@ -23582,8 +25595,16 @@
         <f>Indexes!I613/12</f>
         <v>4.5849999999999997E-3</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J612">
+        <f>Indexes!H613-Indexes!H612</f>
+        <v>1.6999999999999932E-3</v>
+      </c>
+      <c r="K612">
+        <f>Indexes!I613-Indexes!I612</f>
+        <v>-1.5200000000000005E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>45291</v>
       </c>
@@ -23613,8 +25634,16 @@
         <f>Indexes!I614/12</f>
         <v>4.3474999999999998E-3</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J613">
+        <f>Indexes!H614-Indexes!H613</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="K613">
+        <f>Indexes!I614-Indexes!I613</f>
+        <v>-2.8500000000000053E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>45322</v>
       </c>
@@ -23644,8 +25673,16 @@
         <f>Indexes!I615/12</f>
         <v>4.3550000000000004E-3</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J614">
+        <f>Indexes!H615-Indexes!H614</f>
+        <v>-1.9999999999999185E-4</v>
+      </c>
+      <c r="K614">
+        <f>Indexes!I615-Indexes!I614</f>
+        <v>9.0000000000006741E-5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>45351</v>
       </c>
@@ -23675,8 +25712,16 @@
         <f>Indexes!I616/12</f>
         <v>4.4266666666666664E-3</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J615">
+        <f>Indexes!H616-Indexes!H615</f>
+        <v>0</v>
+      </c>
+      <c r="K615">
+        <f>Indexes!I616-Indexes!I615</f>
+        <v>8.5999999999999965E-4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>45382</v>
       </c>
@@ -23705,6 +25750,14 @@
       <c r="I616">
         <f>Indexes!I617/12</f>
         <v>4.5266666666666676E-3</v>
+      </c>
+      <c r="J616">
+        <f>Indexes!H617-Indexes!H616</f>
+        <v>1.9999999999999185E-4</v>
+      </c>
+      <c r="K616">
+        <f>Indexes!I617-Indexes!I616</f>
+        <v>1.2000000000000066E-3</v>
       </c>
     </row>
   </sheetData>

--- a/julia_msp/assets_data_03.24.xlsx
+++ b/julia_msp/assets_data_03.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\julia_msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C2964F65-AC82-4FBA-B9A3-5534075D0D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4BAFC970-DDB6-4566-BEAC-48FB20E4E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{829AE8ED-45E1-4F31-B65E-E75D41917891}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A25BAC-A915-40C4-887C-670A87583871}">
   <dimension ref="A1:I617"/>
   <sheetViews>
-    <sheetView topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="H618" sqref="H618"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="H363" sqref="H363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12133,8 +12133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B758B9-60FA-43E4-B0DC-3A660011F3DB}">
   <dimension ref="A1:K616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="K616" sqref="K362:K616"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="J362" sqref="J362:K362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15985,14 +15985,6 @@
       <c r="I362">
         <f>Indexes!I363/12</f>
         <v>4.7783333333333332E-3</v>
-      </c>
-      <c r="J362">
-        <f>Indexes!H363-Indexes!H362</f>
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="K362">
-        <f>Indexes!I363-Indexes!I362</f>
-        <v>5.7340000000000002E-2</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">

--- a/julia_msp/assets_data_03.24.xlsx
+++ b/julia_msp/assets_data_03.24.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\julia_msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65371E6F-1827-46B4-9517-3F64D5EF64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A98EF4-56DC-4EBB-AB85-951269E65BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{829AE8ED-45E1-4F31-B65E-E75D41917891}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>MwigTR</t>
+  </si>
+  <si>
+    <t>WIGTR</t>
+  </si>
+  <si>
+    <t>sWIGTR</t>
   </si>
 </sst>
 </file>
@@ -22753,10 +22759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB792BF3-79D7-4B2E-8AB3-782B5D1BDFB4}">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22764,7 +22770,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -22792,8 +22798,14 @@
       <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>35795</v>
       </c>
@@ -22828,8 +22840,14 @@
       <c r="I2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1487.2</v>
+      </c>
+      <c r="K2">
+        <v>3284.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>35826</v>
       </c>
@@ -22864,8 +22882,14 @@
       <c r="I3">
         <v>968.70260778618456</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1505.1976855716987</v>
+      </c>
+      <c r="K3">
+        <v>3199.196858924864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>35854</v>
       </c>
@@ -22900,8 +22924,14 @@
       <c r="I4">
         <v>1152.0483143410574</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1814.6690246697794</v>
+      </c>
+      <c r="K4">
+        <v>3340.7121501169336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>35885</v>
       </c>
@@ -22936,8 +22966,14 @@
       <c r="I5">
         <v>1112.2111723830119</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1756.7490549397894</v>
+      </c>
+      <c r="K5">
+        <v>3382.9907403581933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>35915</v>
       </c>
@@ -22972,8 +23008,14 @@
       <c r="I6">
         <v>1137.104434922665</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1897.072749072543</v>
+      </c>
+      <c r="K6">
+        <v>3076.8139602593187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>35946</v>
       </c>
@@ -23008,8 +23050,14 @@
       <c r="I7">
         <v>950.29334574449956</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1642.5331259963029</v>
+      </c>
+      <c r="K7">
+        <v>2465.2920895776747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>35976</v>
       </c>
@@ -23044,8 +23092,14 @@
       <c r="I8">
         <v>934.2846805165151</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>1644.2045484448954</v>
+      </c>
+      <c r="K8">
+        <v>2282.7009420550389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>36007</v>
       </c>
@@ -23080,8 +23134,14 @@
       <c r="I9">
         <v>974.95856224295642</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1735.6734274242153</v>
+      </c>
+      <c r="K9">
+        <v>2098.1238875694194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>36038</v>
       </c>
@@ -23116,8 +23176,14 @@
       <c r="I10">
         <v>676.76717946059694</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1199.499899876253</v>
+      </c>
+      <c r="K10">
+        <v>1518.8728475867285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>36068</v>
       </c>
@@ -23152,8 +23218,14 @@
       <c r="I11">
         <v>710.15005241026176</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1205.3336678717121</v>
+      </c>
+      <c r="K11">
+        <v>1402.2159576393972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>36099</v>
       </c>
@@ -23188,8 +23260,14 @@
       <c r="I12">
         <v>733.46289888264243</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1262.6420616404314</v>
+      </c>
+      <c r="K12">
+        <v>1377.556537335485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>36129</v>
       </c>
@@ -23224,8 +23302,14 @@
       <c r="I13">
         <v>748.89225410255028</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>1177.360562485534</v>
+      </c>
+      <c r="K13">
+        <v>1584.6426058705631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>36160</v>
       </c>
@@ -23260,8 +23344,14 @@
       <c r="I14">
         <v>809.09544344700498</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>1287.6118472181822</v>
+      </c>
+      <c r="K14">
+        <v>1723.3716913675419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>36191</v>
       </c>
@@ -23296,8 +23386,14 @@
       <c r="I15">
         <v>876.02444057972821</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>1405.0832754130272</v>
+      </c>
+      <c r="K15">
+        <v>1567.7290055405574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>36219</v>
       </c>
@@ -23332,8 +23428,14 @@
       <c r="I16">
         <v>830.28128066836723</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1309.6049095613516</v>
+      </c>
+      <c r="K16">
+        <v>1610.8784278905591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>36250</v>
       </c>
@@ -23368,8 +23470,14 @@
       <c r="I17">
         <v>868.95411902603075</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1469.1952700386507</v>
+      </c>
+      <c r="K17">
+        <v>1650.1794246378947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>36280</v>
       </c>
@@ -23404,8 +23512,14 @@
       <c r="I18">
         <v>906.96246494139541</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1552.8791859365642</v>
+      </c>
+      <c r="K18">
+        <v>1851.2042787890057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36311</v>
       </c>
@@ -23440,8 +23554,14 @@
       <c r="I19">
         <v>948.0328077139061</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1563.4306546497485</v>
+      </c>
+      <c r="K19">
+        <v>1942.9077916894887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>36341</v>
       </c>
@@ -23476,8 +23596,14 @@
       <c r="I20">
         <v>1036.1169167487863</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1717.2028840186015</v>
+      </c>
+      <c r="K20">
+        <v>1941.8721877597652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>36372</v>
       </c>
@@ -23512,8 +23638,14 @@
       <c r="I21">
         <v>1075.1356439977139</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1726.2796699038777</v>
+      </c>
+      <c r="K21">
+        <v>1940.8220314278888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>36403</v>
       </c>
@@ -23548,8 +23680,14 @@
       <c r="I22">
         <v>1066.3446119927135</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>1736.4590510933047</v>
+      </c>
+      <c r="K22">
+        <v>1923.2414071647031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>36433</v>
       </c>
@@ -23584,8 +23722,14 @@
       <c r="I23">
         <v>895.91667542089147</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1464.6344955250229</v>
+      </c>
+      <c r="K23">
+        <v>1719.8160540513309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>36464</v>
       </c>
@@ -23620,8 +23764,14 @@
       <c r="I24">
         <v>957.83438901580575</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1527.9510430647326</v>
+      </c>
+      <c r="K24">
+        <v>1784.3984417969614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>36494</v>
       </c>
@@ -23656,8 +23806,14 @@
       <c r="I25">
         <v>1017.2818679657215</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>1672.1090634531815</v>
+      </c>
+      <c r="K25">
+        <v>1858.2055860527896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>36525</v>
       </c>
@@ -23692,8 +23848,14 @@
       <c r="I26">
         <v>1175.3717647270505</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>1924.8620956738228</v>
+      </c>
+      <c r="K26">
+        <v>2204.5997776493523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>36556</v>
       </c>
@@ -23728,8 +23890,14 @@
       <c r="I27">
         <v>1222.1372506538421</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>2061.9166159143851</v>
+      </c>
+      <c r="K27">
+        <v>2356.6859323682697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>36585</v>
       </c>
@@ -23764,8 +23932,14 @@
       <c r="I28">
         <v>1135.548775123367</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>2535.782148553154</v>
+      </c>
+      <c r="K28">
+        <v>2899.7172065136206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>36616</v>
       </c>
@@ -23800,8 +23974,14 @@
       <c r="I29">
         <v>1257.6204125567997</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>2471.4340916493607</v>
+      </c>
+      <c r="K29">
+        <v>3005.7767431539296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>36646</v>
       </c>
@@ -23836,8 +24016,14 @@
       <c r="I30">
         <v>1192.0495959028606</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>2225.4950992073364</v>
+      </c>
+      <c r="K30">
+        <v>3110.8030925352514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>36677</v>
       </c>
@@ -23872,8 +24058,14 @@
       <c r="I31">
         <v>1161.1697596482813</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>2201.6069080568868</v>
+      </c>
+      <c r="K31">
+        <v>3220.7562177750369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>36707</v>
       </c>
@@ -23908,8 +24100,14 @@
       <c r="I32">
         <v>1182.810117993834</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>2189.7183720975386</v>
+      </c>
+      <c r="K32">
+        <v>3270.7307881571496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>36738</v>
       </c>
@@ -23944,8 +24142,14 @@
       <c r="I33">
         <v>1178.5777144999886</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>2134.1969844203586</v>
+      </c>
+      <c r="K33">
+        <v>3318.6650033798869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>36769</v>
       </c>
@@ -23980,8 +24184,14 @@
       <c r="I34">
         <v>1135.8808113777984</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>2108.3122503532295</v>
+      </c>
+      <c r="K34">
+        <v>3256.7295177767373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>36799</v>
       </c>
@@ -24016,8 +24226,14 @@
       <c r="I35">
         <v>1032.8866004142392</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>1867.7516782624846</v>
+      </c>
+      <c r="K35">
+        <v>3065.464410027811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36830</v>
       </c>
@@ -24052,8 +24268,14 @@
       <c r="I36">
         <v>1004.501017348086</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1740.7643029991052</v>
+      </c>
+      <c r="K36">
+        <v>2936.9921837863053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36860</v>
       </c>
@@ -24088,8 +24310,14 @@
       <c r="I37">
         <v>1039.8051408945978</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>1806.6013193159492</v>
+      </c>
+      <c r="K37">
+        <v>2884.1643519682725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36891</v>
       </c>
@@ -24124,8 +24352,14 @@
       <c r="I38">
         <v>1087.9000564126152</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>2027.6400983961432</v>
+      </c>
+      <c r="K38">
+        <v>2982.8539644829871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36922</v>
       </c>
@@ -24160,8 +24394,14 @@
       <c r="I39">
         <v>1104.6871161537863</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>1984.4785837722352</v>
+      </c>
+      <c r="K39">
+        <v>2806.2020889646224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36950</v>
       </c>
@@ -24196,8 +24436,14 @@
       <c r="I40">
         <v>1033.3818982877344</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>1674.0531190325819</v>
+      </c>
+      <c r="K40">
+        <v>2661.9236083869964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>36981</v>
       </c>
@@ -24232,8 +24478,14 @@
       <c r="I41">
         <v>1030.0778885289835</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>1550.240592507485</v>
+      </c>
+      <c r="K41">
+        <v>2571.9185601298345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>37011</v>
       </c>
@@ -24268,8 +24520,14 @@
       <c r="I42">
         <v>1077.0104541499325</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>1628.6096820774185</v>
+      </c>
+      <c r="K42">
+        <v>2551.1298846131208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>37042</v>
       </c>
@@ -24304,8 +24562,14 @@
       <c r="I43">
         <v>1080.278501164235</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>1664.0489663799792</v>
+      </c>
+      <c r="K43">
+        <v>2491.9590153570052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>37072</v>
       </c>
@@ -24340,8 +24604,14 @@
       <c r="I44">
         <v>1036.9145939742943</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>1445.5126831110977</v>
+      </c>
+      <c r="K44">
+        <v>2380.7022948418712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>37103</v>
       </c>
@@ -24376,8 +24646,14 @@
       <c r="I45">
         <v>973.24595737795494</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>1338.5172907157398</v>
+      </c>
+      <c r="K45">
+        <v>2132.513981463349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>37134</v>
       </c>
@@ -24412,8 +24688,14 @@
       <c r="I46">
         <v>983.25436140576676</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>1302.930053816234</v>
+      </c>
+      <c r="K46">
+        <v>2027.7101218311216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>37164</v>
       </c>
@@ -24448,8 +24730,14 @@
       <c r="I47">
         <v>983.09409520537372</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>1173.549117241613</v>
+      </c>
+      <c r="K47">
+        <v>1952.5144030404249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>37195</v>
       </c>
@@ -24484,8 +24772,14 @@
       <c r="I48">
         <v>1058.6070530990075</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>1423.2053243101232</v>
+      </c>
+      <c r="K48">
+        <v>2037.1600817435292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>37225</v>
       </c>
@@ -24520,8 +24814,14 @@
       <c r="I49">
         <v>1086.4233443260757</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>1445.6589888644032</v>
+      </c>
+      <c r="K49">
+        <v>1979.8676173791418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>37256</v>
       </c>
@@ -24556,8 +24856,14 @@
       <c r="I50">
         <v>1134.5697923460691</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>1399.4646744859845</v>
+      </c>
+      <c r="K50">
+        <v>1968.4362150579336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>37287</v>
       </c>
@@ -24592,8 +24898,14 @@
       <c r="I51">
         <v>1222.9434048073181</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>1678.9522929052218</v>
+      </c>
+      <c r="K51">
+        <v>1898.037116104133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>37315</v>
       </c>
@@ -24628,8 +24940,14 @@
       <c r="I52">
         <v>1188.2601632834139</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>1593.9154758679815</v>
+      </c>
+      <c r="K52">
+        <v>1890.2410647429947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>37346</v>
       </c>
@@ -24664,8 +24982,14 @@
       <c r="I53">
         <v>1154.4205433082814</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>1565.1478940705001</v>
+      </c>
+      <c r="K53">
+        <v>1818.2891639468771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>37376</v>
       </c>
@@ -24700,8 +25024,14 @@
       <c r="I54">
         <v>1140.1874567174248</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>1549.1678755605865</v>
+      </c>
+      <c r="K54">
+        <v>1701.334839859506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>37407</v>
       </c>
@@ -24736,8 +25066,14 @@
       <c r="I55">
         <v>1198.3544011493489</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>1610.4105093524156</v>
+      </c>
+      <c r="K55">
+        <v>1738.6926123515825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>37437</v>
       </c>
@@ -24772,8 +25108,14 @@
       <c r="I56">
         <v>1105.4996180456601</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>1434.8382516666256</v>
+      </c>
+      <c r="K56">
+        <v>1716.2789486673464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>37468</v>
       </c>
@@ -24808,8 +25150,14 @@
       <c r="I57">
         <v>995.12000904502054</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>1262.8724696179656</v>
+      </c>
+      <c r="K57">
+        <v>1538.3938151821724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>37499</v>
       </c>
@@ -24844,8 +25192,14 @@
       <c r="I58">
         <v>1020.6913773437311</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>1334.0726745058475</v>
+      </c>
+      <c r="K58">
+        <v>1468.4804962663363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>37529</v>
       </c>
@@ -24880,8 +25234,14 @@
       <c r="I59">
         <v>980.27917220156905</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>1243.9437967635361</v>
+      </c>
+      <c r="K59">
+        <v>1464.8964099373704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>37560</v>
       </c>
@@ -24916,8 +25276,14 @@
       <c r="I60">
         <v>1032.2872766646155</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>1408.3682528728659</v>
+      </c>
+      <c r="K60">
+        <v>1553.2649610876917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>37590</v>
       </c>
@@ -24952,8 +25318,14 @@
       <c r="I61">
         <v>1073.6119774572185</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>1460.1285438770533</v>
+      </c>
+      <c r="K61">
+        <v>1586.0136319888893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>37621</v>
       </c>
@@ -24988,8 +25360,14 @@
       <c r="I62">
         <v>1084.9427626537786</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>1412.5061234911009</v>
+      </c>
+      <c r="K62">
+        <v>1566.7719094474412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>37652</v>
       </c>
@@ -25024,8 +25402,14 @@
       <c r="I63">
         <v>1034.7774111337558</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>1344.8015057367465</v>
+      </c>
+      <c r="K63">
+        <v>1676.3106134598468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>37680</v>
       </c>
@@ -25060,8 +25444,14 @@
       <c r="I64">
         <v>1033.6691975953934</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>1329.3626129187408</v>
+      </c>
+      <c r="K64">
+        <v>1663.920725866054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>37711</v>
       </c>
@@ -25096,8 +25486,14 @@
       <c r="I65">
         <v>1031.0829891101125</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>1325.9299232910373</v>
+      </c>
+      <c r="K65">
+        <v>1575.7003745181985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>37741</v>
       </c>
@@ -25132,8 +25528,14 @@
       <c r="I66">
         <v>1067.205850397904</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <v>1351.8245036126477</v>
+      </c>
+      <c r="K66">
+        <v>1727.3299982233891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>37772</v>
       </c>
@@ -25168,8 +25570,14 @@
       <c r="I67">
         <v>1127.6246672587258</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>1454.7983635185089</v>
+      </c>
+      <c r="K67">
+        <v>1972.0751259795334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>37802</v>
       </c>
@@ -25204,8 +25612,14 @@
       <c r="I68">
         <v>1146.4420693580014</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <v>1532.1536454325226</v>
+      </c>
+      <c r="K68">
+        <v>1974.9854760772278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>37833</v>
       </c>
@@ -25240,8 +25654,14 @@
       <c r="I69">
         <v>1281.5631327688113</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>1702.6444031844969</v>
+      </c>
+      <c r="K69">
+        <v>2531.5764701197386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>37864</v>
       </c>
@@ -25276,8 +25696,14 @@
       <c r="I70">
         <v>1513.8441801943582</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>2016.2020329184757</v>
+      </c>
+      <c r="K70">
+        <v>3084.9665906326372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>37894</v>
       </c>
@@ -25312,8 +25738,14 @@
       <c r="I71">
         <v>1386.9875211641411</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>1824.4307420048215</v>
+      </c>
+      <c r="K71">
+        <v>2905.5795417953136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>37925</v>
       </c>
@@ -25348,8 +25780,14 @@
       <c r="I72">
         <v>1467.6050403968291</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <v>1959.797534861116</v>
+      </c>
+      <c r="K72">
+        <v>3062.0461254011229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>37955</v>
       </c>
@@ -25384,8 +25822,14 @@
       <c r="I73">
         <v>1400.9755299886153</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <v>1800.3751090132084</v>
+      </c>
+      <c r="K73">
+        <v>2930.2992783847621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>37986</v>
       </c>
@@ -25420,8 +25864,14 @@
       <c r="I74">
         <v>1487.203439158731</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <v>1961.8913246664481</v>
+      </c>
+      <c r="K74">
+        <v>3225.8677121358342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>38017</v>
       </c>
@@ -25456,8 +25906,14 @@
       <c r="I75">
         <v>1668.9543567764549</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <v>2040.3528323901205</v>
+      </c>
+      <c r="K75">
+        <v>3692.5398383330976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>38046</v>
       </c>
@@ -25492,8 +25948,14 @@
       <c r="I76">
         <v>1840.4567782202651</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>2169.6395443810084</v>
+      </c>
+      <c r="K76">
+        <v>4429.8839584188572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>38077</v>
       </c>
@@ -25528,8 +25990,14 @@
       <c r="I77">
         <v>2000.2629854572551</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>2216.8794258289868</v>
+      </c>
+      <c r="K77">
+        <v>4700.8809549522484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>38107</v>
       </c>
@@ -25564,8 +26032,14 @@
       <c r="I78">
         <v>2138.4133242893768</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <v>2216.8961169342697</v>
+      </c>
+      <c r="K78">
+        <v>5443.1717270152203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>38138</v>
       </c>
@@ -25600,8 +26074,14 @@
       <c r="I79">
         <v>2051.4928167044854</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <v>2139.7907328718929</v>
+      </c>
+      <c r="K79">
+        <v>5185.8820891268479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>38168</v>
       </c>
@@ -25636,8 +26116,14 @@
       <c r="I80">
         <v>2003.0351022896641</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>2192.2009705543824</v>
+      </c>
+      <c r="K80">
+        <v>4998.3934774059726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>38199</v>
       </c>
@@ -25672,8 +26158,14 @@
       <c r="I81">
         <v>2010.9234645461806</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <v>2132.9945626327412</v>
+      </c>
+      <c r="K81">
+        <v>5027.4345516697986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>38230</v>
       </c>
@@ -25708,8 +26200,14 @@
       <c r="I82">
         <v>2068.8391115657241</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <v>2203.547389732199</v>
+      </c>
+      <c r="K82">
+        <v>5365.2456471700771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>38260</v>
       </c>
@@ -25744,8 +26242,14 @@
       <c r="I83">
         <v>2114.687173326738</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <v>2315.318713869211</v>
+      </c>
+      <c r="K83">
+        <v>5891.2333455240814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>38291</v>
       </c>
@@ -25780,8 +26284,14 @@
       <c r="I84">
         <v>2041.9105281162729</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>2338.0397276804069</v>
+      </c>
+      <c r="K84">
+        <v>5721.0264730747203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>38321</v>
       </c>
@@ -25816,8 +26326,14 @@
       <c r="I85">
         <v>2031.3980567171593</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <v>2372.8278402534479</v>
+      </c>
+      <c r="K85">
+        <v>5518.1452329654785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>38352</v>
       </c>
@@ -25852,8 +26368,14 @@
       <c r="I86">
         <v>2079.946675537763</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <v>2535.0395081844072</v>
+      </c>
+      <c r="K86">
+        <v>5723.6535815477737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>38383</v>
       </c>
@@ -25888,8 +26410,14 @@
       <c r="I87">
         <v>2060.7001439418132</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <v>2440.4427886493886</v>
+      </c>
+      <c r="K87">
+        <v>5773.0696318193077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>38411</v>
       </c>
@@ -25924,8 +26452,14 @@
       <c r="I88">
         <v>2124.6401603388867</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <v>2705.4067001736639</v>
+      </c>
+      <c r="K88">
+        <v>5770.9023515362314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>38442</v>
       </c>
@@ -25960,8 +26494,14 @@
       <c r="I89">
         <v>2091.3932748541674</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <v>2585.8548591648091</v>
+      </c>
+      <c r="K89">
+        <v>5310.5622490778114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>38472</v>
       </c>
@@ -25996,8 +26536,14 @@
       <c r="I90">
         <v>2000.1900035105739</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <v>2409.7854865693548</v>
+      </c>
+      <c r="K90">
+        <v>4976.9627463652041</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>38503</v>
       </c>
@@ -26032,8 +26578,14 @@
       <c r="I91">
         <v>2050.9311488863996</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <v>2508.1836598418381</v>
+      </c>
+      <c r="K91">
+        <v>5059.336770210095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>38533</v>
       </c>
@@ -26068,8 +26620,14 @@
       <c r="I92">
         <v>2154.8345882013</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <v>2686.308920683065</v>
+      </c>
+      <c r="K92">
+        <v>5347.5207168105026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>38564</v>
       </c>
@@ -26104,8 +26662,14 @@
       <c r="I93">
         <v>2220.8043797339074</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <v>2928.6709916186019</v>
+      </c>
+      <c r="K93">
+        <v>5559.2480993778363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>38595</v>
       </c>
@@ -26140,8 +26704,14 @@
       <c r="I94">
         <v>2278.8960236827907</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <v>3032.6808346940106</v>
+      </c>
+      <c r="K94">
+        <v>5482.231962158512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>38625</v>
       </c>
@@ -26176,8 +26746,14 @@
       <c r="I95">
         <v>2333.5354769970859</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <v>3362.2435995256883</v>
+      </c>
+      <c r="K95">
+        <v>5761.3528733139319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>38656</v>
       </c>
@@ -26212,8 +26788,14 @@
       <c r="I96">
         <v>2419.309917325771</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <v>3122.7002936063668</v>
+      </c>
+      <c r="K96">
+        <v>5819.7998649705214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>38686</v>
       </c>
@@ -26248,8 +26830,14 @@
       <c r="I97">
         <v>2510.6174439810784</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <v>3371.1395184759463</v>
+      </c>
+      <c r="K97">
+        <v>6117.1832006996301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>38717</v>
       </c>
@@ -26284,8 +26872,14 @@
       <c r="I98">
         <v>2723.769998401538</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <v>3544.09273341586</v>
+      </c>
+      <c r="K98">
+        <v>6787.5458250987576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>38748</v>
       </c>
@@ -26320,8 +26914,14 @@
       <c r="I99">
         <v>3310.6866870487238</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <v>3744.2767700261879</v>
+      </c>
+      <c r="K99">
+        <v>8499.2188475910207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>38776</v>
       </c>
@@ -26356,8 +26956,14 @@
       <c r="I100">
         <v>3338.5949195558837</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <v>3786.4548043513969</v>
+      </c>
+      <c r="K100">
+        <v>9385.8720075578276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>38807</v>
       </c>
@@ -26392,8 +26998,14 @@
       <c r="I101">
         <v>3451.6204992613339</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <v>3824.2624598899961</v>
+      </c>
+      <c r="K101">
+        <v>10501.290414190067</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>38837</v>
       </c>
@@ -26428,8 +27040,14 @@
       <c r="I102">
         <v>3649.5432690546586</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <v>4271.3470377142621</v>
+      </c>
+      <c r="K102">
+        <v>11789.912905362886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>38868</v>
       </c>
@@ -26464,8 +27082,14 @@
       <c r="I103">
         <v>3295.5519056351186</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <v>3797.4712621211934</v>
+      </c>
+      <c r="K103">
+        <v>11151.022456805786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>38898</v>
       </c>
@@ -26500,8 +27124,14 @@
       <c r="I104">
         <v>3325.8919346305311</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104">
+        <v>4066.3917887599732</v>
+      </c>
+      <c r="K104">
+        <v>10566.783876804027</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>38929</v>
       </c>
@@ -26536,8 +27166,14 @@
       <c r="I105">
         <v>3707.711267375626</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <v>4581.0362161701432</v>
+      </c>
+      <c r="K105">
+        <v>11598.56004573974</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>38960</v>
       </c>
@@ -26572,8 +27208,14 @@
       <c r="I106">
         <v>3661.6718522937399</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <v>4251.3829405351926</v>
+      </c>
+      <c r="K106">
+        <v>12016.039063344098</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>38990</v>
       </c>
@@ -26608,8 +27250,14 @@
       <c r="I107">
         <v>4040.9542231681503</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <v>4190.2752182111772</v>
+      </c>
+      <c r="K107">
+        <v>13153.760989430031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>39021</v>
       </c>
@@ -26644,8 +27292,14 @@
       <c r="I108">
         <v>4461.1731884879282</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <v>4460.2042938007125</v>
+      </c>
+      <c r="K108">
+        <v>14609.782022415102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>39051</v>
       </c>
@@ -26680,8 +27334,14 @@
       <c r="I109">
         <v>4896.949426193808</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <v>4618.9214523972614</v>
+      </c>
+      <c r="K109">
+        <v>16461.237691525308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>39082</v>
       </c>
@@ -26716,8 +27376,14 @@
       <c r="I110">
         <v>4724.089781511283</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <v>4716.647259702575</v>
+      </c>
+      <c r="K110">
+        <v>16179.039069264478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>39113</v>
       </c>
@@ -26752,8 +27418,14 @@
       <c r="I111">
         <v>5364.515461458851</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <v>5000.2563967010838</v>
+      </c>
+      <c r="K111">
+        <v>18412.559420095171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>39141</v>
       </c>
@@ -26788,8 +27460,14 @@
       <c r="I112">
         <v>5342.3779530340889</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <v>4654.1948054442173</v>
+      </c>
+      <c r="K112">
+        <v>18320.974472134571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>39172</v>
       </c>
@@ -26824,8 +27502,14 @@
       <c r="I113">
         <v>6020.2714219355485</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <v>5053.6577706321432</v>
+      </c>
+      <c r="K113">
+        <v>21823.758968364578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>39202</v>
       </c>
@@ -26860,8 +27544,14 @@
       <c r="I114">
         <v>6352.0773971169474</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <v>5159.2580178222051</v>
+      </c>
+      <c r="K114">
+        <v>24072.076865381212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>39233</v>
       </c>
@@ -26896,8 +27586,14 @@
       <c r="I115">
         <v>7177.2396820852755</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <v>5321.4533772873874</v>
+      </c>
+      <c r="K115">
+        <v>25922.664366214249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>39263</v>
       </c>
@@ -26932,8 +27628,14 @@
       <c r="I116">
         <v>7282.3645070756966</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <v>5557.4409016495556</v>
+      </c>
+      <c r="K116">
+        <v>27542.777253044715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>39294</v>
       </c>
@@ -26968,8 +27670,14 @@
       <c r="I117">
         <v>6505.8006359750025</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <v>5546.3856535354989</v>
+      </c>
+      <c r="K117">
+        <v>25522.510132116469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>39325</v>
       </c>
@@ -27004,8 +27712,14 @@
       <c r="I118">
         <v>6143.4934150238278</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <v>5347.856671613592</v>
+      </c>
+      <c r="K118">
+        <v>23720.610199442268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>39355</v>
       </c>
@@ -27040,8 +27754,14 @@
       <c r="I119">
         <v>5893.9587381551764</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <v>5395.5041444794388</v>
+      </c>
+      <c r="K119">
+        <v>23344.164602002948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>39386</v>
       </c>
@@ -27076,8 +27796,14 @@
       <c r="I120">
         <v>6024.3002870240734</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <v>5757.7930297516759</v>
+      </c>
+      <c r="K120">
+        <v>23941.291985527354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>39416</v>
       </c>
@@ -27112,8 +27838,14 @@
       <c r="I121">
         <v>5307.3245971257902</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <v>5264.9746360450472</v>
+      </c>
+      <c r="K121">
+        <v>20919.053607207003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>39447</v>
       </c>
@@ -27148,8 +27880,14 @@
       <c r="I122">
         <v>5233.5003530618242</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <v>5131.8073842009853</v>
+      </c>
+      <c r="K122">
+        <v>20797.855401303015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>39478</v>
       </c>
@@ -27184,8 +27922,14 @@
       <c r="I123">
         <v>4392.0247099540211</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <v>4383.4899229694847</v>
+      </c>
+      <c r="K123">
+        <v>18601.889717314138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>39507</v>
       </c>
@@ -27220,8 +27964,14 @@
       <c r="I124">
         <v>4347.3419730436581</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <v>4347.5700641848643</v>
+      </c>
+      <c r="K124">
+        <v>18953.853771552254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>39538</v>
       </c>
@@ -27256,8 +28006,14 @@
       <c r="I125">
         <v>4400.0637276179386</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <v>4426.5213448684099</v>
+      </c>
+      <c r="K125">
+        <v>18509.593655567001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>39568</v>
       </c>
@@ -27292,8 +28048,14 @@
       <c r="I126">
         <v>4218.4249012157497</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <v>4342.3333677097844</v>
+      </c>
+      <c r="K126">
+        <v>17501.570286695824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>39599</v>
       </c>
@@ -27328,8 +28090,14 @@
       <c r="I127">
         <v>4115.1768485705488</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <v>4379.843630609058</v>
+      </c>
+      <c r="K127">
+        <v>16991.156480318827</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>39629</v>
       </c>
@@ -27364,8 +28132,14 @@
       <c r="I128">
         <v>3491.8334239935966</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <v>3907.2867267208235</v>
+      </c>
+      <c r="K128">
+        <v>15038.248475332377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>39660</v>
       </c>
@@ -27400,8 +28174,14 @@
       <c r="I129">
         <v>3304.5923709249369</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <v>4229.440535798869</v>
+      </c>
+      <c r="K129">
+        <v>13703.736729744165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>39691</v>
       </c>
@@ -27436,8 +28216,14 @@
       <c r="I130">
         <v>3173.503379915343</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <v>3990.5566657319655</v>
+      </c>
+      <c r="K130">
+        <v>13419.69090961473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>39721</v>
       </c>
@@ -27472,8 +28258,14 @@
       <c r="I131">
         <v>2988.5890710805534</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <v>3663.5669937361918</v>
+      </c>
+      <c r="K131">
+        <v>12628.821634080437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>39752</v>
       </c>
@@ -27508,8 +28300,14 @@
       <c r="I132">
         <v>2161.172516748903</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <v>2805.5762991673455</v>
+      </c>
+      <c r="K132">
+        <v>9788.3104442209096</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>39782</v>
       </c>
@@ -27544,8 +28342,14 @@
       <c r="I133">
         <v>2082.9448362070493</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <v>2676.8570067984133</v>
+      </c>
+      <c r="K133">
+        <v>9578.6188883924897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>39813</v>
       </c>
@@ -27580,8 +28384,14 @@
       <c r="I134">
         <v>2020.6968677856826</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <v>2750.0802466462551</v>
+      </c>
+      <c r="K134">
+        <v>9217.3457129040253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>39844</v>
       </c>
@@ -27616,8 +28426,14 @@
       <c r="I135">
         <v>1830.4145705809242</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <v>2450.7480901077533</v>
+      </c>
+      <c r="K135">
+        <v>8938.2516247538097</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>39872</v>
       </c>
@@ -27652,8 +28468,14 @@
       <c r="I136">
         <v>1670.8840245797917</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <v>2108.9275764899639</v>
+      </c>
+      <c r="K136">
+        <v>8232.3990019168323</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>39903</v>
       </c>
@@ -27688,8 +28510,14 @@
       <c r="I137">
         <v>1860.08673436033</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <v>2323.1019972633439</v>
+      </c>
+      <c r="K137">
+        <v>9440.7867235907033</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>39933</v>
       </c>
@@ -27724,8 +28552,14 @@
       <c r="I138">
         <v>2272.4879459267822</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <v>2763.566356333929</v>
+      </c>
+      <c r="K138">
+        <v>11666.189487691667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>39964</v>
       </c>
@@ -27760,8 +28594,14 @@
       <c r="I139">
         <v>2354.9885872501372</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <v>2771.8545598907831</v>
+      </c>
+      <c r="K139">
+        <v>12278.900844323818</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>39994</v>
       </c>
@@ -27796,8 +28636,14 @@
       <c r="I140">
         <v>2396.7217290562717</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <v>2896.4491456534183</v>
+      </c>
+      <c r="K140">
+        <v>12698.38259448003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>40025</v>
       </c>
@@ -27832,8 +28678,14 @@
       <c r="I141">
         <v>2771.5179980919752</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <v>3391.3492878353254</v>
+      </c>
+      <c r="K141">
+        <v>14183.049276600457</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>40056</v>
       </c>
@@ -27868,8 +28720,14 @@
       <c r="I142">
         <v>3178.1347901670601</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <v>3514.6508621226326</v>
+      </c>
+      <c r="K142">
+        <v>15846.363626711031</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>40086</v>
       </c>
@@ -27904,8 +28762,14 @@
       <c r="I143">
         <v>3078.5086958377942</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <v>3498.0485947794168</v>
+      </c>
+      <c r="K143">
+        <v>15491.882171697236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>40117</v>
       </c>
@@ -27940,8 +28804,14 @@
       <c r="I144">
         <v>3055.2401215752766</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <v>3667.0064042605659</v>
+      </c>
+      <c r="K144">
+        <v>15139.746475193486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>40147</v>
       </c>
@@ -27976,8 +28846,14 @@
       <c r="I145">
         <v>3127.1325211334997</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <v>3792.7388401214903</v>
+      </c>
+      <c r="K145">
+        <v>15177.868728645941</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>40178</v>
       </c>
@@ -28012,8 +28888,14 @@
       <c r="I146">
         <v>3218.1852850546497</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <v>3850.7950553637302</v>
+      </c>
+      <c r="K146">
+        <v>15311.086786833092</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>40209</v>
       </c>
@@ -28048,8 +28930,14 @@
       <c r="I147">
         <v>3184.0301137529113</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <v>3840.9810982659887</v>
+      </c>
+      <c r="K147">
+        <v>15911.551338390167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>40237</v>
       </c>
@@ -28084,8 +28972,14 @@
       <c r="I148">
         <v>3171.2459291532246</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <v>3651.3609654090933</v>
+      </c>
+      <c r="K148">
+        <v>15974.322910854993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>40268</v>
       </c>
@@ -28120,8 +29014,14 @@
       <c r="I149">
         <v>3434.6385393283181</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <v>4023.0888344512264</v>
+      </c>
+      <c r="K149">
+        <v>17177.129501071675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>40298</v>
       </c>
@@ -28156,8 +29056,14 @@
       <c r="I150">
         <v>3506.3781159982341</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <v>4106.7854672492276</v>
+      </c>
+      <c r="K150">
+        <v>17260.235915463196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>40329</v>
       </c>
@@ -28192,8 +29098,14 @@
       <c r="I151">
         <v>3401.2103656486647</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <v>3932.0737567028677</v>
+      </c>
+      <c r="K151">
+        <v>16186.327097866717</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>40359</v>
       </c>
@@ -28228,8 +29140,14 @@
       <c r="I152">
         <v>3276.7840367819699</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <v>3714.4987157493747</v>
+      </c>
+      <c r="K152">
+        <v>15219.821586576887</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>40390</v>
       </c>
@@ -28264,8 +29182,14 @@
       <c r="I153">
         <v>3465.254741073491</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <v>4051.5997374822159</v>
+      </c>
+      <c r="K153">
+        <v>16301.074691956803</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>40421</v>
       </c>
@@ -28300,8 +29224,14 @@
       <c r="I154">
         <v>3485.3089018940295</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <v>3994.0607268301064</v>
+      </c>
+      <c r="K154">
+        <v>16462.635218140185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>40451</v>
       </c>
@@ -28336,8 +29266,14 @@
       <c r="I155">
         <v>3724.0933284083526</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <v>4302.8965177122709</v>
+      </c>
+      <c r="K155">
+        <v>16892.690205037969</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>40482</v>
       </c>
@@ -28372,8 +29308,14 @@
       <c r="I156">
         <v>3889.1080716854267</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <v>4391.066970214908</v>
+      </c>
+      <c r="K156">
+        <v>16757.373083133371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>40512</v>
       </c>
@@ -28408,8 +29350,14 @@
       <c r="I157">
         <v>3784.7770544480672</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <v>4325.3819872682307</v>
+      </c>
+      <c r="K157">
+        <v>16376.436472050375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>40543</v>
       </c>
@@ -28444,8 +29392,14 @@
       <c r="I158">
         <v>3941.6027867744842</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <v>4544.9482658937295</v>
+      </c>
+      <c r="K158">
+        <v>17066.371567074468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>40574</v>
       </c>
@@ -28480,8 +29434,14 @@
       <c r="I159">
         <v>3970.6278239128292</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <v>4479.8322079961963</v>
+      </c>
+      <c r="K159">
+        <v>17499.215174521603</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>40602</v>
       </c>
@@ -28516,8 +29476,14 @@
       <c r="I160">
         <v>4034.7819348277817</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <v>4501.2832683718916</v>
+      </c>
+      <c r="K160">
+        <v>17809.083376752842</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>40633</v>
       </c>
@@ -28552,8 +29518,14 @@
       <c r="I161">
         <v>4092.2970485901064</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <v>4665.4957257385859</v>
+      </c>
+      <c r="K161">
+        <v>17783.958181704242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>40663</v>
       </c>
@@ -28588,8 +29560,14 @@
       <c r="I162">
         <v>4132.2133331234627</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <v>4824.9369707613196</v>
+      </c>
+      <c r="K162">
+        <v>18045.080744530758</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>40694</v>
       </c>
@@ -28624,8 +29602,14 @@
       <c r="I163">
         <v>4164.2560962402749</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <v>4832.5657384657552</v>
+      </c>
+      <c r="K163">
+        <v>17909.970698409525</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>40724</v>
       </c>
@@ -28660,8 +29644,14 @@
       <c r="I164">
         <v>4031.7642088493144</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <v>4700.3294548839303</v>
+      </c>
+      <c r="K164">
+        <v>17010.502520721893</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>40755</v>
       </c>
@@ -28696,8 +29686,14 @@
       <c r="I165">
         <v>3886.8173433290449</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <v>4632.8471859865467</v>
+      </c>
+      <c r="K165">
+        <v>15743.958004384667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>40786</v>
       </c>
@@ -28732,8 +29728,14 @@
       <c r="I166">
         <v>3449.3705288777419</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <v>4198.6410024565503</v>
+      </c>
+      <c r="K166">
+        <v>13683.540154825048</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>40816</v>
       </c>
@@ -28768,8 +29770,14 @@
       <c r="I167">
         <v>3100.0413129976723</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <v>3798.9840855473262</v>
+      </c>
+      <c r="K167">
+        <v>12546.569858667028</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>40847</v>
       </c>
@@ -28804,8 +29812,14 @@
       <c r="I168">
         <v>3310.8020387210504</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <v>4116.3537521666576</v>
+      </c>
+      <c r="K168">
+        <v>13064.521613078236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>40877</v>
       </c>
@@ -28840,8 +29854,14 @@
       <c r="I169">
         <v>3103.6214333630351</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <v>3971.4200958971082</v>
+      </c>
+      <c r="K169">
+        <v>12441.195895037379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>40908</v>
       </c>
@@ -28876,8 +29896,14 @@
       <c r="I170">
         <v>3106.6940270865657</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <v>3722.1921340275785</v>
+      </c>
+      <c r="K170">
+        <v>12111.393197393953</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>40939</v>
       </c>
@@ -28912,8 +29938,14 @@
       <c r="I171">
         <v>3366.2596120435128</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <v>4045.1605403350818</v>
+      </c>
+      <c r="K171">
+        <v>13427.594486582722</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>40968</v>
       </c>
@@ -28948,8 +29980,14 @@
       <c r="I172">
         <v>3535.6637749256297</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172">
+        <v>4019.0417085334502</v>
+      </c>
+      <c r="K172">
+        <v>14816.244689845693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>40999</v>
       </c>
@@ -28984,8 +30022,14 @@
       <c r="I173">
         <v>3580.8062121762409</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <v>3966.0023778154832</v>
+      </c>
+      <c r="K173">
+        <v>14636.903256397147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>41029</v>
       </c>
@@ -29020,8 +30064,14 @@
       <c r="I174">
         <v>3456.942277696442</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <v>3893.1411811807334</v>
+      </c>
+      <c r="K174">
+        <v>14147.569375247338</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>41060</v>
       </c>
@@ -29056,8 +30106,14 @@
       <c r="I175">
         <v>3290.4323883664006</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <v>3650.6110187534046</v>
+      </c>
+      <c r="K175">
+        <v>13295.438721637533</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>41090</v>
       </c>
@@ -29092,8 +30148,14 @@
       <c r="I176">
         <v>3371.9658575300691</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <v>4032.9415818932298</v>
+      </c>
+      <c r="K176">
+        <v>13648.737618167068</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>41121</v>
       </c>
@@ -29128,8 +30190,14 @@
       <c r="I177">
         <v>3293.2032094920837</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177">
+        <v>3986.832792683022</v>
+      </c>
+      <c r="K177">
+        <v>13473.965657004832</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>41152</v>
       </c>
@@ -29164,8 +30232,14 @@
       <c r="I178">
         <v>3280.7207974902435</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178">
+        <v>4154.2260582790241</v>
+      </c>
+      <c r="K178">
+        <v>13603.802173176302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>41182</v>
       </c>
@@ -29200,8 +30274,14 @@
       <c r="I179">
         <v>3485.8164285358635</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <v>4362.3491853478672</v>
+      </c>
+      <c r="K179">
+        <v>14312.484529121275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>41213</v>
       </c>
@@ -29236,8 +30316,14 @@
       <c r="I180">
         <v>3564.8122644903665</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <v>4263.2657159934588</v>
+      </c>
+      <c r="K180">
+        <v>14265.533546505732</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>41243</v>
       </c>
@@ -29272,8 +30358,14 @@
       <c r="I181">
         <v>3711.3777284899952</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181">
+        <v>4520.8206717641033</v>
+      </c>
+      <c r="K181">
+        <v>14483.860447436282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>41274</v>
       </c>
@@ -29308,8 +30400,14 @@
       <c r="I182">
         <v>3783.6248318017447</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182">
+        <v>4822.2087165483772</v>
+      </c>
+      <c r="K182">
+        <v>15184.080306367634</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>41305</v>
       </c>
@@ -29344,8 +30442,14 @@
       <c r="I183">
         <v>3850.6046315874432</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183">
+        <v>4653.7681116573594</v>
+      </c>
+      <c r="K183">
+        <v>16350.289703137156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>41333</v>
       </c>
@@ -29380,8 +30484,14 @@
       <c r="I184">
         <v>3866.132203440282</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184">
+        <v>4577.6873164490416</v>
+      </c>
+      <c r="K184">
+        <v>16068.556197339454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>41364</v>
       </c>
@@ -29416,8 +30526,14 @@
       <c r="I185">
         <v>3890.6443685471922</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <v>4424.71112880295</v>
+      </c>
+      <c r="K185">
+        <v>15903.572018204393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>41394</v>
       </c>
@@ -29452,8 +30568,14 @@
       <c r="I186">
         <v>3798.0001810082599</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186">
+        <v>4339.398231660789</v>
+      </c>
+      <c r="K186">
+        <v>15282.634574198375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>41425</v>
       </c>
@@ -29488,8 +30610,14 @@
       <c r="I187">
         <v>4192.3620986488149</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187">
+        <v>4664.5906177058569</v>
+      </c>
+      <c r="K187">
+        <v>16804.80724257676</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>41455</v>
       </c>
@@ -29524,8 +30652,14 @@
       <c r="I188">
         <v>4140.1828730938696</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188">
+        <v>4250.7622950270343</v>
+      </c>
+      <c r="K188">
+        <v>17163.614354943871</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>41486</v>
       </c>
@@ -29560,8 +30694,14 @@
       <c r="I189">
         <v>4376.4159494627611</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189">
+        <v>4463.9152367349043</v>
+      </c>
+      <c r="K189">
+        <v>17551.812423496951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>41517</v>
       </c>
@@ -29596,8 +30736,14 @@
       <c r="I190">
         <v>4620.536264184464</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <v>4616.6974726596964</v>
+      </c>
+      <c r="K190">
+        <v>18852.31736830646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>41547</v>
       </c>
@@ -29632,8 +30778,14 @@
       <c r="I191">
         <v>4911.1021251020256</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191">
+        <v>4688.6794214912234</v>
+      </c>
+      <c r="K191">
+        <v>19648.316679571428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>41578</v>
       </c>
@@ -29668,8 +30820,14 @@
       <c r="I192">
         <v>5230.446118305148</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192">
+        <v>4958.1300828348876</v>
+      </c>
+      <c r="K192">
+        <v>22032.71149473573</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>41608</v>
       </c>
@@ -29704,8 +30862,14 @@
       <c r="I193">
         <v>5261.4601112020273</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193">
+        <v>5097.3486283834864</v>
+      </c>
+      <c r="K193">
+        <v>22170.154594682903</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>41639</v>
       </c>
@@ -29740,8 +30904,14 @@
       <c r="I194">
         <v>5016.0778383438746</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194">
+        <v>4735.0597431112501</v>
+      </c>
+      <c r="K194">
+        <v>21164.221854239888</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>41670</v>
       </c>
@@ -29776,8 +30946,14 @@
       <c r="I195">
         <v>5070.5477922552018</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <v>4646.1522740676764</v>
+      </c>
+      <c r="K195">
+        <v>21239.486998967888</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>41698</v>
       </c>
@@ -29812,8 +30988,14 @@
       <c r="I196">
         <v>5367.6017640264663</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196">
+        <v>4966.8967006376151</v>
+      </c>
+      <c r="K196">
+        <v>21352.481351425464</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>41729</v>
       </c>
@@ -29848,8 +31030,14 @@
       <c r="I197">
         <v>5220.2407177234236</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197">
+        <v>4856.3312893822913</v>
+      </c>
+      <c r="K197">
+        <v>20178.844836559158</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>41759</v>
       </c>
@@ -29884,8 +31072,14 @@
       <c r="I198">
         <v>5181.5863913265166</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198">
+        <v>4827.4324829087045</v>
+      </c>
+      <c r="K198">
+        <v>19334.610672821771</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>41790</v>
       </c>
@@ -29920,8 +31114,14 @@
       <c r="I199">
         <v>5298.9347810800791</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199">
+        <v>4815.1618040078383</v>
+      </c>
+      <c r="K199">
+        <v>19412.374532002414</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>41820</v>
       </c>
@@ -29956,8 +31156,14 @@
       <c r="I200">
         <v>5246.2480288833012</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <v>4826.604955564495</v>
+      </c>
+      <c r="K200">
+        <v>19062.154162118943</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>41851</v>
       </c>
@@ -29992,8 +31198,14 @@
       <c r="I201">
         <v>5068.5176856878688</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <v>4667.771425935166</v>
+      </c>
+      <c r="K201">
+        <v>17603.042972302097</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>41882</v>
       </c>
@@ -30028,8 +31240,14 @@
       <c r="I202">
         <v>5229.6231021292024</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202">
+        <v>4872.9076964960013</v>
+      </c>
+      <c r="K202">
+        <v>17687.460866654947</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>41912</v>
       </c>
@@ -30064,8 +31282,14 @@
       <c r="I203">
         <v>5602.2848265973271</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203">
+        <v>5134.7942407089959</v>
+      </c>
+      <c r="K203">
+        <v>18991.071948214969</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>41943</v>
       </c>
@@ -30100,8 +31324,14 @@
       <c r="I204">
         <v>5466.1305172234079</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204">
+        <v>5059.6185535334089</v>
+      </c>
+      <c r="K204">
+        <v>18752.092689156561</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>41973</v>
       </c>
@@ -30136,8 +31366,14 @@
       <c r="I205">
         <v>5483.5373093446551</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205">
+        <v>4967.0001415556426</v>
+      </c>
+      <c r="K205">
+        <v>18487.656913796167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42004</v>
       </c>
@@ -30172,8 +31408,14 @@
       <c r="I206">
         <v>5362.320743564148</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206">
+        <v>4759.43300942119</v>
+      </c>
+      <c r="K206">
+        <v>18217.4368215537</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42035</v>
       </c>
@@ -30208,8 +31450,14 @@
       <c r="I207">
         <v>5445.020152310406</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207">
+        <v>4810.9465865982693</v>
+      </c>
+      <c r="K207">
+        <v>18821.076535122414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42063</v>
       </c>
@@ -30244,8 +31492,14 @@
       <c r="I208">
         <v>5629.4169265309965</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208">
+        <v>4864.580702594887</v>
+      </c>
+      <c r="K208">
+        <v>19940.348754328617</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42094</v>
       </c>
@@ -30280,8 +31534,14 @@
       <c r="I209">
         <v>5744.9546806974804</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <v>4923.8523486239374</v>
+      </c>
+      <c r="K209">
+        <v>20226.596512203734</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42124</v>
       </c>
@@ -30316,8 +31576,14 @@
       <c r="I210">
         <v>5963.6163617099364</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <v>5167.7660333298672</v>
+      </c>
+      <c r="K210">
+        <v>20767.188552263131</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42155</v>
       </c>
@@ -30352,8 +31618,14 @@
       <c r="I211">
         <v>5950.804743237718</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <v>5035.9305833053941</v>
+      </c>
+      <c r="K211">
+        <v>20780.510427659778</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42185</v>
       </c>
@@ -30388,8 +31660,14 @@
       <c r="I212">
         <v>5728.8784313940123</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <v>4839.4574896292588</v>
+      </c>
+      <c r="K212">
+        <v>19602.470101133855</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42216</v>
       </c>
@@ -30424,8 +31702,14 @@
       <c r="I213">
         <v>5984.3838032162948</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <v>4667.6550549023868</v>
+      </c>
+      <c r="K213">
+        <v>20257.285143298806</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42247</v>
       </c>
@@ -30460,8 +31744,14 @@
       <c r="I214">
         <v>5768.4380755844595</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214">
+        <v>4533.9705984681941</v>
+      </c>
+      <c r="K214">
+        <v>20179.935435684907</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42277</v>
       </c>
@@ -30496,8 +31786,14 @@
       <c r="I215">
         <v>5623.4912100641895</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <v>4389.4119155264898</v>
+      </c>
+      <c r="K215">
+        <v>20023.386143459014</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42308</v>
       </c>
@@ -30532,8 +31828,14 @@
       <c r="I216">
         <v>5787.8063895917094</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <v>4375.9387359535694</v>
+      </c>
+      <c r="K216">
+        <v>20787.758080077641</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42338</v>
       </c>
@@ -30568,8 +31870,14 @@
       <c r="I217">
         <v>5745.3936226579845</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <v>4090.63575392238</v>
+      </c>
+      <c r="K217">
+        <v>20430.317667880754</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42369</v>
       </c>
@@ -30604,8 +31912,14 @@
       <c r="I218">
         <v>5609.0061253675485</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <v>3949.2320189804768</v>
+      </c>
+      <c r="K218">
+        <v>20194.554985990653</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42400</v>
       </c>
@@ -30640,8 +31954,14 @@
       <c r="I219">
         <v>5304.5450080127739</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <v>3781.6318715484226</v>
+      </c>
+      <c r="K219">
+        <v>19032.459494784038</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>42429</v>
       </c>
@@ -30676,8 +31996,14 @@
       <c r="I220">
         <v>5477.158933981078</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <v>3874.7286977720605</v>
+      </c>
+      <c r="K220">
+        <v>19473.696573983671</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42460</v>
       </c>
@@ -30712,8 +32038,14 @@
       <c r="I221">
         <v>5702.3361597197681</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <v>4243.5214307651986</v>
+      </c>
+      <c r="K221">
+        <v>20796.952244859163</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>42490</v>
       </c>
@@ -30748,8 +32080,14 @@
       <c r="I222">
         <v>5724.6810488966885</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <v>4038.4627408928836</v>
+      </c>
+      <c r="K222">
+        <v>21067.945420026197</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42521</v>
       </c>
@@ -30784,8 +32122,14 @@
       <c r="I223">
         <v>5531.0939273780405</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <v>3856.3162143633854</v>
+      </c>
+      <c r="K223">
+        <v>21015.334365998606</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42551</v>
       </c>
@@ -30820,8 +32164,14 @@
       <c r="I224">
         <v>5418.3544282097719</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <v>3764.6158405331025</v>
+      </c>
+      <c r="K224">
+        <v>20372.184592963356</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42582</v>
       </c>
@@ -30856,8 +32206,14 @@
       <c r="I225">
         <v>5865.7048706449523</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <v>3814.5648738250343</v>
+      </c>
+      <c r="K225">
+        <v>21259.11778323114</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42613</v>
       </c>
@@ -30892,8 +32248,14 @@
       <c r="I226">
         <v>6429.5806866577504</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <v>3889.2362865252439</v>
+      </c>
+      <c r="K226">
+        <v>22163.873295920755</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42643</v>
       </c>
@@ -30928,8 +32290,14 @@
       <c r="I227">
         <v>6572.154522204045</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227">
+        <v>3740.5141066329825</v>
+      </c>
+      <c r="K227">
+        <v>22421.337519907778</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42674</v>
       </c>
@@ -30964,8 +32332,14 @@
       <c r="I228">
         <v>6712.6571003742083</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <v>3970.5925685529005</v>
+      </c>
+      <c r="K228">
+        <v>22418.894025664042</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42704</v>
       </c>
@@ -31000,8 +32374,14 @@
       <c r="I229">
         <v>6692.8635613427195</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <v>3934.6339194240204</v>
+      </c>
+      <c r="K229">
+        <v>21842.767781178769</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42735</v>
       </c>
@@ -31036,8 +32416,14 @@
       <c r="I230">
         <v>6916.0106805140767</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <v>4262.1795863541856</v>
+      </c>
+      <c r="K230">
+        <v>22273.071259016593</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42766</v>
       </c>
@@ -31072,8 +32458,14 @@
       <c r="I231">
         <v>7617.6319705076212</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <v>4500.4686711424383</v>
+      </c>
+      <c r="K231">
+        <v>23874.153605910251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>42794</v>
       </c>
@@ -31108,8 +32500,14 @@
       <c r="I232">
         <v>7940.8441397376873</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <v>4794.5899914353668</v>
+      </c>
+      <c r="K232">
+        <v>24788.752120835943</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>42825</v>
       </c>
@@ -31144,8 +32542,14 @@
       <c r="I233">
         <v>7782.4546766769745</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <v>4761.1397845686233</v>
+      </c>
+      <c r="K233">
+        <v>25588.782507350465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>42855</v>
       </c>
@@ -31180,8 +32584,14 @@
       <c r="I234">
         <v>7975.5891392988533</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <v>5200.7636861802457</v>
+      </c>
+      <c r="K234">
+        <v>25515.71236592616</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42886</v>
       </c>
@@ -31216,8 +32626,14 @@
       <c r="I235">
         <v>7940.2817453507914</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <v>5001.898521274753</v>
+      </c>
+      <c r="K235">
+        <v>25444.064144880977</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42916</v>
       </c>
@@ -31252,8 +32668,14 @@
       <c r="I236">
         <v>8157.9695238883778</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <v>5076.2078907618707</v>
+      </c>
+      <c r="K236">
+        <v>25303.956669854477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>42947</v>
       </c>
@@ -31288,8 +32710,14 @@
       <c r="I237">
         <v>8241.711419790834</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <v>5274.8273834870497</v>
+      </c>
+      <c r="K237">
+        <v>24848.100040349087</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42978</v>
       </c>
@@ -31324,8 +32752,14 @@
       <c r="I238">
         <v>8237.5551881023093</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <v>5590.529065303208</v>
+      </c>
+      <c r="K238">
+        <v>24835.675493347033</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43008</v>
       </c>
@@ -31360,8 +32794,14 @@
       <c r="I239">
         <v>8372.2417852957897</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <v>5476.5501037530194</v>
+      </c>
+      <c r="K239">
+        <v>24159.421205077422</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43039</v>
       </c>
@@ -31396,8 +32836,14 @@
       <c r="I240">
         <v>8183.2772712987007</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <v>5636.0042788905048</v>
+      </c>
+      <c r="K240">
+        <v>22914.039833800365</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43069</v>
       </c>
@@ -31432,8 +32878,14 @@
       <c r="I241">
         <v>7973.1475246435475</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <v>5376.6132468248952</v>
+      </c>
+      <c r="K241">
+        <v>22642.011279716495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43100</v>
       </c>
@@ -31468,8 +32920,14 @@
       <c r="I242">
         <v>8136.9140267204375</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <v>5493.8635274076651</v>
+      </c>
+      <c r="K242">
+        <v>23323.842809084807</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43131</v>
       </c>
@@ -31504,8 +32962,14 @@
       <c r="I243">
         <v>8432.9529452080369</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <v>5700.5384816241394</v>
+      </c>
+      <c r="K243">
+        <v>23919.696473198896</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43159</v>
       </c>
@@ -31540,8 +33004,14 @@
       <c r="I244">
         <v>7925.3440017573794</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <v>5277.5814979294992</v>
+      </c>
+      <c r="K244">
+        <v>23325.899761866254</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43190</v>
       </c>
@@ -31576,8 +33046,14 @@
       <c r="I245">
         <v>7646.698158454763</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <v>4933.9507682462499</v>
+      </c>
+      <c r="K245">
+        <v>22658.867248482613</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43220</v>
       </c>
@@ -31612,8 +33088,14 @@
       <c r="I246">
         <v>7731.3316552144925</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <v>5115.8645527101889</v>
+      </c>
+      <c r="K246">
+        <v>22617.286431182405</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43251</v>
       </c>
@@ -31648,8 +33130,14 @@
       <c r="I247">
         <v>7665.6961151828382</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <v>4820.1528283026064</v>
+      </c>
+      <c r="K247">
+        <v>21999.800250232514</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>43281</v>
       </c>
@@ -31684,8 +33172,14 @@
       <c r="I248">
         <v>7253.570765078126</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <v>4771.8717798138478</v>
+      </c>
+      <c r="K248">
+        <v>20761.252379806585</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>43312</v>
       </c>
@@ -31720,8 +33214,14 @@
       <c r="I249">
         <v>7523.3417506167971</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <v>5200.2206213606069</v>
+      </c>
+      <c r="K249">
+        <v>21524.726988030619</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>43343</v>
       </c>
@@ -31756,8 +33256,14 @@
       <c r="I250">
         <v>7329.9192323333373</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <v>5292.8907537973864</v>
+      </c>
+      <c r="K250">
+        <v>20731.99947414286</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>43373</v>
       </c>
@@ -31792,8 +33298,14 @@
       <c r="I251">
         <v>7222.3510181372594</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <v>5212.7886929007982</v>
+      </c>
+      <c r="K251">
+        <v>19005.636278311817</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>43404</v>
       </c>
@@ -31828,8 +33340,14 @@
       <c r="I252">
         <v>6616.4876602149761</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <v>4908.8663456248805</v>
+      </c>
+      <c r="K252">
+        <v>18182.717115209067</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>43434</v>
       </c>
@@ -31864,8 +33382,14 @@
       <c r="I253">
         <v>6833.2564040227562</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <v>5229.3392397849993</v>
+      </c>
+      <c r="K253">
+        <v>18131.969743231784</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>43465</v>
       </c>
@@ -31900,8 +33424,14 @@
       <c r="I254">
         <v>6773.4642788403144</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <v>5196.3545170493744</v>
+      </c>
+      <c r="K254">
+        <v>17668.437504689577</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43496</v>
       </c>
@@ -31936,8 +33466,14 @@
       <c r="I255">
         <v>7063.3991606896507</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <v>5432.5359931328412</v>
+      </c>
+      <c r="K255">
+        <v>18521.203190701708</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>43524</v>
       </c>
@@ -31972,8 +33508,14 @@
       <c r="I256">
         <v>7163.6562478560791</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <v>5323.2635933528463</v>
+      </c>
+      <c r="K256">
+        <v>19440.895769898245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>43555</v>
       </c>
@@ -32008,8 +33550,14 @@
       <c r="I257">
         <v>7189.5126727170336</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <v>5277.2970354049257</v>
+      </c>
+      <c r="K257">
+        <v>19885.197570691718</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>43585</v>
       </c>
@@ -32044,8 +33592,14 @@
       <c r="I258">
         <v>7182.7502231380149</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <v>5331.5388667949483</v>
+      </c>
+      <c r="K258">
+        <v>20144.856797982433</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>43616</v>
       </c>
@@ -32080,8 +33634,14 @@
       <c r="I259">
         <v>6912.2248061047267</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>5132.6866320042081</v>
+      </c>
+      <c r="K259">
+        <v>19507.795052978196</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>43646</v>
       </c>
@@ -32116,8 +33676,14 @@
       <c r="I260">
         <v>7171.1731289297159</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <v>5343.2535507614211</v>
+      </c>
+      <c r="K260">
+        <v>20185.761167723645</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>43677</v>
       </c>
@@ -32152,8 +33718,14 @@
       <c r="I261">
         <v>6993.3604841166889</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <v>5308.58791310787</v>
+      </c>
+      <c r="K261">
+        <v>20559.422516284329</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>43708</v>
       </c>
@@ -32188,8 +33760,14 @@
       <c r="I262">
         <v>6712.9725899083214</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <v>5019.8196603228007</v>
+      </c>
+      <c r="K262">
+        <v>20025.346460874898</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>43738</v>
       </c>
@@ -32224,8 +33802,14 @@
       <c r="I263">
         <v>6594.2662234644476</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <v>5116.0455743167322</v>
+      </c>
+      <c r="K263">
+        <v>19810.595068470495</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>43769</v>
       </c>
@@ -32260,8 +33844,14 @@
       <c r="I264">
         <v>6616.8580174941499</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <v>5165.0377791169212</v>
+      </c>
+      <c r="K264">
+        <v>19817.815110783908</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>43799</v>
       </c>
@@ -32296,8 +33886,14 @@
       <c r="I265">
         <v>6757.4154634093766</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <v>5082.2462543516504</v>
+      </c>
+      <c r="K265">
+        <v>20516.198897769402</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43830</v>
       </c>
@@ -32332,8 +33928,14 @@
       <c r="I266">
         <v>6976.1457291031611</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <v>5061.4287695988642</v>
+      </c>
+      <c r="K266">
+        <v>21043.455257379923</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43861</v>
       </c>
@@ -32368,8 +33970,14 @@
       <c r="I267">
         <v>7155.7004248219382</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <v>4863.235970660543</v>
+      </c>
+      <c r="K267">
+        <v>22043.796951672015</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43890</v>
       </c>
@@ -32404,8 +34012,14 @@
       <c r="I268">
         <v>6394.4378959448768</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <v>4164.1175960652845</v>
+      </c>
+      <c r="K268">
+        <v>20316.591647655281</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43921</v>
       </c>
@@ -32440,8 +34054,14 @@
       <c r="I269">
         <v>5087.364756117021</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <v>3561.3156462672314</v>
+      </c>
+      <c r="K269">
+        <v>17929.67050793389</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43951</v>
       </c>
@@ -32476,8 +34096,14 @@
       <c r="I270">
         <v>5855.2114144016468</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270">
+        <v>3885.6934350828419</v>
+      </c>
+      <c r="K270">
+        <v>20460.233216051256</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43982</v>
       </c>
@@ -32512,8 +34138,14 @@
       <c r="I271">
         <v>6006.3583351140378</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <v>4060.0301723013567</v>
+      </c>
+      <c r="K271">
+        <v>21918.598933047979</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44012</v>
       </c>
@@ -32548,8 +34180,14 @@
       <c r="I272">
         <v>6231.6315794065895</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272">
+        <v>4145.2654887549988</v>
+      </c>
+      <c r="K272">
+        <v>23724.631085266639</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44043</v>
       </c>
@@ -32584,8 +34222,14 @@
       <c r="I273">
         <v>6412.2013284090326</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273">
+        <v>4176.5046459989298</v>
+      </c>
+      <c r="K273">
+        <v>25564.264734599743</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44074</v>
       </c>
@@ -32620,8 +34264,14 @@
       <c r="I274">
         <v>6670.4912382932653</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <v>4253.7103611907833</v>
+      </c>
+      <c r="K274">
+        <v>26126.17177529378</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44104</v>
       </c>
@@ -32656,8 +34306,14 @@
       <c r="I275">
         <v>6471.1978712880609</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <v>4049.1042253348332</v>
+      </c>
+      <c r="K275">
+        <v>25342.362325143051</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44135</v>
       </c>
@@ -32692,8 +34348,14 @@
       <c r="I276">
         <v>5807.8193996034515</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <v>3590.1627322818063</v>
+      </c>
+      <c r="K276">
+        <v>23000.114334420159</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44165</v>
       </c>
@@ -32728,8 +34390,14 @@
       <c r="I277">
         <v>6774.1089748448048</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <v>4333.9417232349051</v>
+      </c>
+      <c r="K277">
+        <v>26548.344077371363</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44196</v>
       </c>
@@ -32764,8 +34432,14 @@
       <c r="I278">
         <v>7225.7939691399642</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <v>4698.4804484742126</v>
+      </c>
+      <c r="K278">
+        <v>28830.567701022104</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44227</v>
       </c>
@@ -32800,8 +34474,14 @@
       <c r="I279">
         <v>7462.5071382781562</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <v>4613.2968524795842</v>
+      </c>
+      <c r="K279">
+        <v>30261.99976112882</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44255</v>
       </c>
@@ -32836,8 +34516,14 @@
       <c r="I280">
         <v>7836.7463104168437</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <v>4516.851126534847</v>
+      </c>
+      <c r="K280">
+        <v>31400.819934284922</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44286</v>
       </c>
@@ -32872,8 +34558,14 @@
       <c r="I281">
         <v>7933.6564651344279</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <v>4591.6130500383288</v>
+      </c>
+      <c r="K281">
+        <v>33235.525179973883</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44316</v>
       </c>
@@ -32908,8 +34600,14 @@
       <c r="I282">
         <v>8210.2036171883847</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282">
+        <v>4825.4541753514522</v>
+      </c>
+      <c r="K282">
+        <v>35549.77652478547</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44347</v>
       </c>
@@ -32944,8 +34642,14 @@
       <c r="I283">
         <v>9016.5262816984632</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283">
+        <v>5296.7956484528777</v>
+      </c>
+      <c r="K283">
+        <v>37177.889163934713</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44377</v>
       </c>
@@ -32980,8 +34684,14 @@
       <c r="I284">
         <v>8931.1657873166496</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284">
+        <v>5269.5518966677109</v>
+      </c>
+      <c r="K284">
+        <v>37471.42598938437</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44408</v>
       </c>
@@ -33016,8 +34726,14 @@
       <c r="I285">
         <v>9178.8936562762447</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285">
+        <v>5393.1250033648357</v>
+      </c>
+      <c r="K285">
+        <v>37829.363383461336</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44439</v>
       </c>
@@ -33052,8 +34768,14 @@
       <c r="I286">
         <v>9727.1458818823448</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286">
+        <v>5667.359807167215</v>
+      </c>
+      <c r="K286">
+        <v>38580.151148691053</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44469</v>
       </c>
@@ -33088,8 +34810,14 @@
       <c r="I287">
         <v>9768.4750108510743</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287">
+        <v>5590.9557590900658</v>
+      </c>
+      <c r="K287">
+        <v>38862.892423301135</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44500</v>
       </c>
@@ -33124,8 +34852,14 @@
       <c r="I288">
         <v>10628.046821944827</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288">
+        <v>5821.9134688132081</v>
+      </c>
+      <c r="K288">
+        <v>39236.981728480772</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44530</v>
       </c>
@@ -33160,8 +34894,14 @@
       <c r="I289">
         <v>9930.8698193013879</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <v>5311.9109525994663</v>
+      </c>
+      <c r="K289">
+        <v>37194.137710402953</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44561</v>
       </c>
@@ -33196,8 +34936,14 @@
       <c r="I290">
         <v>9884.1225005076831</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290">
+        <v>5487.5277711785557</v>
+      </c>
+      <c r="K290">
+        <v>37045.333052475013</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44592</v>
       </c>
@@ -33232,8 +34978,14 @@
       <c r="I291">
         <v>9538.3185372479129</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291">
+        <v>5348.8264302200896</v>
+      </c>
+      <c r="K291">
+        <v>35995.293170174707</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44620</v>
       </c>
@@ -33268,8 +35020,14 @@
       <c r="I292">
         <v>8581.7954206277791</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292">
+        <v>4841.1125443176788</v>
+      </c>
+      <c r="K292">
+        <v>33718.895278562712</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44651</v>
       </c>
@@ -33304,8 +35062,14 @@
       <c r="I293">
         <v>8934.4304181478965</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293">
+        <v>5163.4861653465314</v>
+      </c>
+      <c r="K293">
+        <v>36424.395608469007</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44681</v>
       </c>
@@ -33340,8 +35104,14 @@
       <c r="I294">
         <v>8216.3488046354414</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294">
+        <v>4497.9602288803007</v>
+      </c>
+      <c r="K294">
+        <v>34481.279287661011</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44712</v>
       </c>
@@ -33376,8 +35146,14 @@
       <c r="I295">
         <v>8265.8532276185633</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295">
+        <v>4471.2336816852649</v>
+      </c>
+      <c r="K295">
+        <v>33774.225927878528</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44742</v>
       </c>
@@ -33412,8 +35188,14 @@
       <c r="I296">
         <v>7768.8886267101343</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296">
+        <v>4122.1335134613773</v>
+      </c>
+      <c r="K296">
+        <v>32564.930963116327</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44773</v>
       </c>
@@ -33448,8 +35230,14 @@
       <c r="I297">
         <v>8025.5599381150059</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297">
+        <v>4233.6816134379496</v>
+      </c>
+      <c r="K297">
+        <v>32904.783738779195</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44804</v>
       </c>
@@ -33484,8 +35272,14 @@
       <c r="I298">
         <v>7425.087336145164</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298">
+        <v>3790.1269569413289</v>
+      </c>
+      <c r="K298">
+        <v>32538.452872949725</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44834</v>
       </c>
@@ -33520,8 +35314,14 @@
       <c r="I299">
         <v>6877.0820153918494</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299">
+        <v>3445.5135385368303</v>
+      </c>
+      <c r="K299">
+        <v>30388.38501424417</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44865</v>
       </c>
@@ -33556,8 +35356,14 @@
       <c r="I300">
         <v>7404.4982148102608</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300">
+        <v>3841.5112329708759</v>
+      </c>
+      <c r="K300">
+        <v>31690.049583440541</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44895</v>
       </c>
@@ -33592,8 +35398,14 @@
       <c r="I301">
         <v>7960.692546514234</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301">
+        <v>4341.5575608245899</v>
+      </c>
+      <c r="K301">
+        <v>33941.405110317282</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44926</v>
       </c>
@@ -33628,8 +35440,14 @@
       <c r="I302">
         <v>8057.9181907659304</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302">
+        <v>4480.9829882092408</v>
+      </c>
+      <c r="K302">
+        <v>33757.866940992484</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44957</v>
       </c>
@@ -33664,8 +35482,14 @@
       <c r="I303">
         <v>8557.7221974813692</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303">
+        <v>4756.6271745197282</v>
+      </c>
+      <c r="K303">
+        <v>37451.767595016667</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44985</v>
       </c>
@@ -33700,8 +35524,14 @@
       <c r="I304">
         <v>8576.1440428862825</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304">
+        <v>4620.8351093807505</v>
+      </c>
+      <c r="K304">
+        <v>37846.067496652984</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45016</v>
       </c>
@@ -33736,8 +35566,14 @@
       <c r="I305">
         <v>8736.2755568527482</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305">
+        <v>4397.3380758702533</v>
+      </c>
+      <c r="K305">
+        <v>39316.402193928348</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45046</v>
       </c>
@@ -33772,8 +35608,14 @@
       <c r="I306">
         <v>8923.1002287923784</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306">
+        <v>4808.7484670902122</v>
+      </c>
+      <c r="K306">
+        <v>41259.408074318548</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45077</v>
       </c>
@@ -33808,8 +35650,14 @@
       <c r="I307">
         <v>8903.1558034619648</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307">
+        <v>4737.2061421602966</v>
+      </c>
+      <c r="K307">
+        <v>41265.951669072958</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45107</v>
       </c>
@@ -33844,8 +35692,14 @@
       <c r="I308">
         <v>9557.0147213781383</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308">
+        <v>5157.5124523305149</v>
+      </c>
+      <c r="K308">
+        <v>43169.10236369101</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45138</v>
       </c>
@@ -33880,8 +35734,14 @@
       <c r="I309">
         <v>10638.389391889203</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309">
+        <v>5530.0031981430911</v>
+      </c>
+      <c r="K309">
+        <v>43756.742021731523</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45169</v>
       </c>
@@ -33916,8 +35776,14 @@
       <c r="I310">
         <v>10327.87910564123</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310">
+        <v>5185.8552638697101</v>
+      </c>
+      <c r="K310">
+        <v>42120.788112918766</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45199</v>
       </c>
@@ -33952,8 +35818,14 @@
       <c r="I311">
         <v>9833.9185137750028</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311">
+        <v>4932.8775687217285</v>
+      </c>
+      <c r="K311">
+        <v>41533.521191288324</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45230</v>
       </c>
@@ -33988,8 +35860,14 @@
       <c r="I312">
         <v>10295.781474779355</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312">
+        <v>5535.7700293230555</v>
+      </c>
+      <c r="K312">
+        <v>41886.751062556737</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45260</v>
       </c>
@@ -34024,8 +35902,14 @@
       <c r="I313">
         <v>11039.582343790105</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313">
+        <v>5704.5080268533984</v>
+      </c>
+      <c r="K313">
+        <v>43272.488399800335</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45291</v>
       </c>
@@ -34060,8 +35944,14 @@
       <c r="I314">
         <v>11540.456271534274</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314">
+        <v>6049.4188378972231</v>
+      </c>
+      <c r="K314">
+        <v>46117.999569367552</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45322</v>
       </c>
@@ -34096,8 +35986,14 @@
       <c r="I315">
         <v>11668.243249786081</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315">
+        <v>5910.0322008568319</v>
+      </c>
+      <c r="K315">
+        <v>46184.388065515195</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45351</v>
       </c>
@@ -34132,8 +36028,14 @@
       <c r="I316">
         <v>12449.944013699122</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316">
+        <v>6268.3903312440707</v>
+      </c>
+      <c r="K316">
+        <v>48102.406801379046</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45382</v>
       </c>
@@ -34167,6 +36069,12 @@
       </c>
       <c r="I317">
         <v>12624.546895425961</v>
+      </c>
+      <c r="J317">
+        <v>6314.9258142411372</v>
+      </c>
+      <c r="K317">
+        <v>48950.29930395593</v>
       </c>
     </row>
   </sheetData>
